--- a/ProducsBlocked.xlsx
+++ b/ProducsBlocked.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="77">
   <si>
     <t>1- TV - PRODUCT BLOCKED TO SALES</t>
   </si>
@@ -1021,9 +1021,6 @@
       </rPr>
       <t>: +40  MAX9000, PCB main flat cable NG assemble.</t>
     </r>
-  </si>
-  <si>
-    <t>gnj</t>
   </si>
 </sst>
 </file>
@@ -1533,50 +1530,50 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1619,7 +1616,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$AO$135:$AV$148" spid="_x0000_s1039"/>
+                  <a14:cameraTool cellRange="$AO$135:$AV$148" spid="_x0000_s1040"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1929,7 +1926,7 @@
   <dimension ref="A2:AV148"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2004,53 +2001,53 @@
       <c r="C12" s="1"/>
     </row>
     <row r="22" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="96" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="96"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="96"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="96"/>
-      <c r="J22" s="96"/>
+      <c r="B22" s="87" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="87"/>
     </row>
     <row r="23" spans="2:14" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="94" t="s">
+      <c r="B23" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="94" t="s">
+      <c r="C23" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="94" t="s">
+      <c r="D23" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="94" t="s">
+      <c r="E23" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="F23" s="94" t="s">
+      <c r="F23" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="G23" s="94" t="s">
+      <c r="G23" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="H23" s="93" t="s">
+      <c r="H23" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="I23" s="94" t="s">
+      <c r="I23" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="J23" s="94"/>
+      <c r="J23" s="88"/>
     </row>
     <row r="24" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="94"/>
-      <c r="C24" s="94"/>
-      <c r="D24" s="94"/>
-      <c r="E24" s="94"/>
-      <c r="F24" s="94"/>
-      <c r="G24" s="94"/>
-      <c r="H24" s="93"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="89"/>
       <c r="I24" s="5" t="s">
         <v>9</v>
       </c>
@@ -2065,8 +2062,8 @@
       <c r="C25" s="7"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
-      <c r="F25" s="9" t="s">
-        <v>77</v>
+      <c r="F25" s="9">
+        <v>300</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="11"/>
@@ -2079,13 +2076,13 @@
     <row r="26" spans="2:14" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="96" t="s">
+      <c r="D26" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="96"/>
+      <c r="E26" s="87"/>
       <c r="F26" s="15">
         <f>SUM(F25:F25)</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="16" t="s">
@@ -2112,59 +2109,59 @@
       <c r="N27" s="14"/>
     </row>
     <row r="28" spans="2:14" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="96" t="s">
+      <c r="B28" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="97"/>
-      <c r="D28" s="97"/>
-      <c r="E28" s="97"/>
-      <c r="F28" s="97"/>
-      <c r="G28" s="97"/>
-      <c r="H28" s="97"/>
-      <c r="I28" s="97"/>
-      <c r="J28" s="97"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="90"/>
+      <c r="J28" s="90"/>
       <c r="L28" s="13"/>
       <c r="M28" s="14"/>
       <c r="N28" s="14"/>
     </row>
     <row r="29" spans="2:14" s="2" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="94" t="s">
+      <c r="B29" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="94" t="s">
+      <c r="C29" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="94" t="s">
+      <c r="D29" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="94" t="s">
+      <c r="E29" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="94" t="s">
+      <c r="F29" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="94" t="s">
+      <c r="G29" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="H29" s="93" t="s">
+      <c r="H29" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="I29" s="94" t="s">
+      <c r="I29" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="94"/>
+      <c r="J29" s="88"/>
       <c r="L29" s="13"/>
       <c r="M29" s="14"/>
       <c r="N29" s="14"/>
     </row>
     <row r="30" spans="2:14" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="94"/>
-      <c r="C30" s="94"/>
-      <c r="D30" s="94"/>
-      <c r="E30" s="94"/>
-      <c r="F30" s="94"/>
-      <c r="G30" s="94"/>
-      <c r="H30" s="93"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="88"/>
+      <c r="H30" s="89"/>
       <c r="I30" s="5" t="s">
         <v>9</v>
       </c>
@@ -2206,10 +2203,10 @@
     <row r="32" spans="2:14" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="96" t="s">
+      <c r="D32" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="96"/>
+      <c r="E32" s="87"/>
       <c r="F32" s="15">
         <f>SUM(F31:F31)</f>
         <v>0</v>
@@ -2245,59 +2242,59 @@
       <c r="N33" s="14"/>
     </row>
     <row r="34" spans="1:14" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="96" t="s">
+      <c r="B34" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="97"/>
-      <c r="D34" s="97"/>
-      <c r="E34" s="97"/>
-      <c r="F34" s="97"/>
-      <c r="G34" s="97"/>
-      <c r="H34" s="97"/>
-      <c r="I34" s="97"/>
-      <c r="J34" s="97"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="90"/>
+      <c r="G34" s="90"/>
+      <c r="H34" s="90"/>
+      <c r="I34" s="90"/>
+      <c r="J34" s="90"/>
       <c r="L34" s="13"/>
       <c r="M34" s="14"/>
       <c r="N34" s="14"/>
     </row>
     <row r="35" spans="1:14" s="2" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="94" t="s">
+      <c r="B35" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="94" t="s">
+      <c r="C35" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="94" t="s">
+      <c r="D35" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="94" t="s">
+      <c r="E35" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="F35" s="94" t="s">
+      <c r="F35" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="G35" s="94" t="s">
+      <c r="G35" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="H35" s="93" t="s">
+      <c r="H35" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="I35" s="94" t="s">
+      <c r="I35" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="J35" s="94"/>
+      <c r="J35" s="88"/>
       <c r="L35" s="13"/>
       <c r="M35" s="14"/>
       <c r="N35" s="14"/>
     </row>
     <row r="36" spans="1:14" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="94"/>
-      <c r="C36" s="94"/>
-      <c r="D36" s="94"/>
-      <c r="E36" s="94"/>
-      <c r="F36" s="94"/>
-      <c r="G36" s="94"/>
-      <c r="H36" s="93"/>
+      <c r="B36" s="88"/>
+      <c r="C36" s="88"/>
+      <c r="D36" s="88"/>
+      <c r="E36" s="88"/>
+      <c r="F36" s="88"/>
+      <c r="G36" s="88"/>
+      <c r="H36" s="89"/>
       <c r="I36" s="5" t="s">
         <v>9</v>
       </c>
@@ -2327,10 +2324,10 @@
     <row r="38" spans="1:14" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="96" t="s">
+      <c r="D38" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="E38" s="96"/>
+      <c r="E38" s="87"/>
       <c r="F38" s="15">
         <f>SUM(F37:F37)</f>
         <v>0</v>
@@ -2348,68 +2345,68 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="L38" s="13"/>
-      <c r="M38" s="88"/>
-      <c r="N38" s="88"/>
+      <c r="M38" s="91"/>
+      <c r="N38" s="91"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L39" s="13"/>
-      <c r="M39" s="88"/>
-      <c r="N39" s="88"/>
+      <c r="M39" s="91"/>
+      <c r="N39" s="91"/>
     </row>
     <row r="40" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B40" s="96" t="s">
+      <c r="B40" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="97"/>
-      <c r="D40" s="97"/>
-      <c r="E40" s="97"/>
-      <c r="F40" s="97"/>
-      <c r="G40" s="97"/>
-      <c r="H40" s="97"/>
-      <c r="I40" s="97"/>
-      <c r="J40" s="97"/>
+      <c r="C40" s="90"/>
+      <c r="D40" s="90"/>
+      <c r="E40" s="90"/>
+      <c r="F40" s="90"/>
+      <c r="G40" s="90"/>
+      <c r="H40" s="90"/>
+      <c r="I40" s="90"/>
+      <c r="J40" s="90"/>
       <c r="L40" s="13"/>
-      <c r="M40" s="88"/>
-      <c r="N40" s="88"/>
+      <c r="M40" s="91"/>
+      <c r="N40" s="91"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B41" s="94" t="s">
+      <c r="B41" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="94" t="s">
+      <c r="C41" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="D41" s="94" t="s">
+      <c r="D41" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="E41" s="94" t="s">
+      <c r="E41" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="F41" s="94" t="s">
+      <c r="F41" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="G41" s="94" t="s">
+      <c r="G41" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="H41" s="93" t="s">
+      <c r="H41" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="I41" s="94" t="s">
+      <c r="I41" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="J41" s="94"/>
+      <c r="J41" s="88"/>
       <c r="L41" s="13"/>
-      <c r="M41" s="88"/>
-      <c r="N41" s="88"/>
+      <c r="M41" s="91"/>
+      <c r="N41" s="91"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B42" s="94"/>
-      <c r="C42" s="94"/>
-      <c r="D42" s="94"/>
-      <c r="E42" s="94"/>
-      <c r="F42" s="94"/>
-      <c r="G42" s="94"/>
-      <c r="H42" s="93"/>
+      <c r="B42" s="88"/>
+      <c r="C42" s="88"/>
+      <c r="D42" s="88"/>
+      <c r="E42" s="88"/>
+      <c r="F42" s="88"/>
+      <c r="G42" s="88"/>
+      <c r="H42" s="89"/>
       <c r="I42" s="5" t="s">
         <v>9</v>
       </c>
@@ -2417,8 +2414,8 @@
         <v>10</v>
       </c>
       <c r="L42" s="13"/>
-      <c r="M42" s="88"/>
-      <c r="N42" s="88"/>
+      <c r="M42" s="91"/>
+      <c r="N42" s="91"/>
     </row>
     <row r="43" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="37">
@@ -2428,10 +2425,10 @@
       <c r="B43" s="38">
         <v>1</v>
       </c>
-      <c r="C43" s="100" t="s">
+      <c r="C43" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="100" t="s">
+      <c r="D43" s="92" t="s">
         <v>24</v>
       </c>
       <c r="E43" s="39" t="s">
@@ -2440,16 +2437,16 @@
       <c r="F43" s="38">
         <v>24</v>
       </c>
-      <c r="G43" s="94" t="s">
+      <c r="G43" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="H43" s="101" t="s">
+      <c r="H43" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="I43" s="93" t="s">
+      <c r="I43" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="J43" s="94"/>
+      <c r="J43" s="88"/>
       <c r="L43" s="13"/>
       <c r="M43" s="14"/>
       <c r="N43" s="14"/>
@@ -2462,18 +2459,18 @@
       <c r="B44" s="38">
         <v>2</v>
       </c>
-      <c r="C44" s="100"/>
-      <c r="D44" s="100"/>
+      <c r="C44" s="92"/>
+      <c r="D44" s="92"/>
       <c r="E44" s="39" t="s">
         <v>28</v>
       </c>
       <c r="F44" s="38">
         <v>24</v>
       </c>
-      <c r="G44" s="94"/>
-      <c r="H44" s="101"/>
-      <c r="I44" s="94"/>
-      <c r="J44" s="94"/>
+      <c r="G44" s="88"/>
+      <c r="H44" s="93"/>
+      <c r="I44" s="88"/>
+      <c r="J44" s="88"/>
       <c r="L44" s="13"/>
       <c r="M44" s="14"/>
       <c r="N44" s="14"/>
@@ -2486,18 +2483,18 @@
       <c r="B45" s="38">
         <v>3</v>
       </c>
-      <c r="C45" s="100"/>
-      <c r="D45" s="100"/>
+      <c r="C45" s="92"/>
+      <c r="D45" s="92"/>
       <c r="E45" s="39" t="s">
         <v>29</v>
       </c>
       <c r="F45" s="38">
         <v>73</v>
       </c>
-      <c r="G45" s="94"/>
-      <c r="H45" s="101"/>
-      <c r="I45" s="94"/>
-      <c r="J45" s="94"/>
+      <c r="G45" s="88"/>
+      <c r="H45" s="93"/>
+      <c r="I45" s="88"/>
+      <c r="J45" s="88"/>
       <c r="L45" s="13"/>
       <c r="M45" s="14"/>
       <c r="N45" s="14"/>
@@ -2510,18 +2507,18 @@
       <c r="B46" s="38">
         <v>4</v>
       </c>
-      <c r="C46" s="100"/>
-      <c r="D46" s="100"/>
+      <c r="C46" s="92"/>
+      <c r="D46" s="92"/>
       <c r="E46" s="39" t="s">
         <v>30</v>
       </c>
       <c r="F46" s="38">
         <v>73</v>
       </c>
-      <c r="G46" s="94"/>
-      <c r="H46" s="101"/>
-      <c r="I46" s="94"/>
-      <c r="J46" s="94"/>
+      <c r="G46" s="88"/>
+      <c r="H46" s="93"/>
+      <c r="I46" s="88"/>
+      <c r="J46" s="88"/>
       <c r="L46" s="13"/>
       <c r="M46" s="14"/>
       <c r="N46" s="14"/>
@@ -2534,18 +2531,18 @@
       <c r="B47" s="38">
         <v>5</v>
       </c>
-      <c r="C47" s="100"/>
-      <c r="D47" s="100"/>
+      <c r="C47" s="92"/>
+      <c r="D47" s="92"/>
       <c r="E47" s="39" t="s">
         <v>31</v>
       </c>
       <c r="F47" s="38">
         <v>11</v>
       </c>
-      <c r="G47" s="94"/>
-      <c r="H47" s="101"/>
-      <c r="I47" s="94"/>
-      <c r="J47" s="94"/>
+      <c r="G47" s="88"/>
+      <c r="H47" s="93"/>
+      <c r="I47" s="88"/>
+      <c r="J47" s="88"/>
       <c r="L47" s="13"/>
       <c r="M47" s="14"/>
       <c r="N47" s="14"/>
@@ -2558,18 +2555,18 @@
       <c r="B48" s="38">
         <v>6</v>
       </c>
-      <c r="C48" s="100"/>
-      <c r="D48" s="100"/>
+      <c r="C48" s="92"/>
+      <c r="D48" s="92"/>
       <c r="E48" s="39" t="s">
         <v>32</v>
       </c>
       <c r="F48" s="38">
         <v>11</v>
       </c>
-      <c r="G48" s="94"/>
-      <c r="H48" s="101"/>
-      <c r="I48" s="94"/>
-      <c r="J48" s="94"/>
+      <c r="G48" s="88"/>
+      <c r="H48" s="93"/>
+      <c r="I48" s="88"/>
+      <c r="J48" s="88"/>
       <c r="L48" s="13"/>
       <c r="M48" s="14"/>
       <c r="N48" s="14"/>
@@ -2582,18 +2579,18 @@
       <c r="B49" s="38">
         <v>7</v>
       </c>
-      <c r="C49" s="100"/>
-      <c r="D49" s="100"/>
+      <c r="C49" s="92"/>
+      <c r="D49" s="92"/>
       <c r="E49" s="39" t="s">
         <v>33</v>
       </c>
       <c r="F49" s="38">
         <v>5</v>
       </c>
-      <c r="G49" s="94"/>
-      <c r="H49" s="101"/>
-      <c r="I49" s="94"/>
-      <c r="J49" s="94"/>
+      <c r="G49" s="88"/>
+      <c r="H49" s="93"/>
+      <c r="I49" s="88"/>
+      <c r="J49" s="88"/>
       <c r="L49" s="13"/>
       <c r="M49" s="14"/>
       <c r="N49" s="14"/>
@@ -2606,29 +2603,29 @@
       <c r="B50" s="38">
         <v>8</v>
       </c>
-      <c r="C50" s="100"/>
-      <c r="D50" s="100"/>
+      <c r="C50" s="92"/>
+      <c r="D50" s="92"/>
       <c r="E50" s="39" t="s">
         <v>34</v>
       </c>
       <c r="F50" s="38">
         <v>5</v>
       </c>
-      <c r="G50" s="94"/>
-      <c r="H50" s="101"/>
-      <c r="I50" s="94"/>
-      <c r="J50" s="94"/>
+      <c r="G50" s="88"/>
+      <c r="H50" s="93"/>
+      <c r="I50" s="88"/>
+      <c r="J50" s="88"/>
       <c r="L50" s="13"/>
       <c r="M50" s="14"/>
       <c r="N50" s="14"/>
     </row>
     <row r="51" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="98" t="s">
+      <c r="B51" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="C51" s="98"/>
-      <c r="D51" s="98"/>
-      <c r="E51" s="98"/>
+      <c r="C51" s="94"/>
+      <c r="D51" s="94"/>
+      <c r="E51" s="94"/>
       <c r="F51" s="40">
         <f>SUM(F43:F50)</f>
         <v>226</v>
@@ -2646,10 +2643,10 @@
       <c r="B52" s="38">
         <v>9</v>
       </c>
-      <c r="C52" s="100" t="s">
+      <c r="C52" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="D52" s="100" t="s">
+      <c r="D52" s="92" t="s">
         <v>36</v>
       </c>
       <c r="E52" s="39" t="s">
@@ -2658,16 +2655,16 @@
       <c r="F52" s="43">
         <v>0</v>
       </c>
-      <c r="G52" s="94" t="s">
+      <c r="G52" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="H52" s="101" t="s">
+      <c r="H52" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="I52" s="93" t="s">
+      <c r="I52" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="J52" s="94"/>
+      <c r="J52" s="88"/>
       <c r="L52" s="13"/>
       <c r="M52" s="14"/>
       <c r="N52" s="14"/>
@@ -2676,18 +2673,18 @@
       <c r="B53" s="38">
         <v>10</v>
       </c>
-      <c r="C53" s="100"/>
-      <c r="D53" s="100"/>
+      <c r="C53" s="92"/>
+      <c r="D53" s="92"/>
       <c r="E53" s="39" t="s">
         <v>28</v>
       </c>
       <c r="F53" s="44">
         <v>6</v>
       </c>
-      <c r="G53" s="94"/>
-      <c r="H53" s="101"/>
-      <c r="I53" s="94"/>
-      <c r="J53" s="94"/>
+      <c r="G53" s="88"/>
+      <c r="H53" s="93"/>
+      <c r="I53" s="88"/>
+      <c r="J53" s="88"/>
       <c r="L53" s="13"/>
       <c r="M53" s="14"/>
       <c r="N53" s="14"/>
@@ -2696,18 +2693,18 @@
       <c r="B54" s="38">
         <v>11</v>
       </c>
-      <c r="C54" s="100"/>
-      <c r="D54" s="100"/>
+      <c r="C54" s="92"/>
+      <c r="D54" s="92"/>
       <c r="E54" s="39" t="s">
         <v>29</v>
       </c>
       <c r="F54" s="43">
         <v>0</v>
       </c>
-      <c r="G54" s="94"/>
-      <c r="H54" s="101"/>
-      <c r="I54" s="94"/>
-      <c r="J54" s="94"/>
+      <c r="G54" s="88"/>
+      <c r="H54" s="93"/>
+      <c r="I54" s="88"/>
+      <c r="J54" s="88"/>
       <c r="L54" s="13"/>
       <c r="M54" s="14"/>
       <c r="N54" s="14"/>
@@ -2716,18 +2713,18 @@
       <c r="B55" s="38">
         <v>12</v>
       </c>
-      <c r="C55" s="100"/>
-      <c r="D55" s="100"/>
+      <c r="C55" s="92"/>
+      <c r="D55" s="92"/>
       <c r="E55" s="39" t="s">
         <v>30</v>
       </c>
       <c r="F55" s="43">
         <v>0</v>
       </c>
-      <c r="G55" s="94"/>
-      <c r="H55" s="101"/>
-      <c r="I55" s="94"/>
-      <c r="J55" s="94"/>
+      <c r="G55" s="88"/>
+      <c r="H55" s="93"/>
+      <c r="I55" s="88"/>
+      <c r="J55" s="88"/>
       <c r="L55" s="13"/>
       <c r="M55" s="14"/>
       <c r="N55" s="14"/>
@@ -2736,18 +2733,18 @@
       <c r="B56" s="38">
         <v>13</v>
       </c>
-      <c r="C56" s="100"/>
-      <c r="D56" s="100"/>
+      <c r="C56" s="92"/>
+      <c r="D56" s="92"/>
       <c r="E56" s="39" t="s">
         <v>31</v>
       </c>
       <c r="F56" s="43">
         <v>0</v>
       </c>
-      <c r="G56" s="94"/>
-      <c r="H56" s="101"/>
-      <c r="I56" s="94"/>
-      <c r="J56" s="94"/>
+      <c r="G56" s="88"/>
+      <c r="H56" s="93"/>
+      <c r="I56" s="88"/>
+      <c r="J56" s="88"/>
       <c r="L56" s="13"/>
       <c r="M56" s="14"/>
       <c r="N56" s="14"/>
@@ -2756,18 +2753,18 @@
       <c r="B57" s="38">
         <v>14</v>
       </c>
-      <c r="C57" s="100"/>
-      <c r="D57" s="100"/>
+      <c r="C57" s="92"/>
+      <c r="D57" s="92"/>
       <c r="E57" s="39" t="s">
         <v>32</v>
       </c>
       <c r="F57" s="43">
         <v>0</v>
       </c>
-      <c r="G57" s="94"/>
-      <c r="H57" s="101"/>
-      <c r="I57" s="94"/>
-      <c r="J57" s="94"/>
+      <c r="G57" s="88"/>
+      <c r="H57" s="93"/>
+      <c r="I57" s="88"/>
+      <c r="J57" s="88"/>
       <c r="L57" s="13"/>
       <c r="M57" s="14"/>
       <c r="N57" s="14"/>
@@ -2776,18 +2773,18 @@
       <c r="B58" s="38">
         <v>15</v>
       </c>
-      <c r="C58" s="100"/>
-      <c r="D58" s="100"/>
+      <c r="C58" s="92"/>
+      <c r="D58" s="92"/>
       <c r="E58" s="39" t="s">
         <v>33</v>
       </c>
       <c r="F58" s="43">
         <v>0</v>
       </c>
-      <c r="G58" s="94"/>
-      <c r="H58" s="101"/>
-      <c r="I58" s="94"/>
-      <c r="J58" s="94"/>
+      <c r="G58" s="88"/>
+      <c r="H58" s="93"/>
+      <c r="I58" s="88"/>
+      <c r="J58" s="88"/>
       <c r="L58" s="13"/>
       <c r="M58" s="14"/>
       <c r="N58" s="14"/>
@@ -2796,29 +2793,29 @@
       <c r="B59" s="38">
         <v>16</v>
       </c>
-      <c r="C59" s="100"/>
-      <c r="D59" s="100"/>
+      <c r="C59" s="92"/>
+      <c r="D59" s="92"/>
       <c r="E59" s="39" t="s">
         <v>34</v>
       </c>
       <c r="F59" s="43">
         <v>0</v>
       </c>
-      <c r="G59" s="94"/>
-      <c r="H59" s="101"/>
-      <c r="I59" s="94"/>
-      <c r="J59" s="94"/>
+      <c r="G59" s="88"/>
+      <c r="H59" s="93"/>
+      <c r="I59" s="88"/>
+      <c r="J59" s="88"/>
       <c r="L59" s="13"/>
       <c r="M59" s="14"/>
       <c r="N59" s="14"/>
     </row>
     <row r="60" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="98" t="s">
+      <c r="B60" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="C60" s="98"/>
-      <c r="D60" s="98"/>
-      <c r="E60" s="98"/>
+      <c r="C60" s="94"/>
+      <c r="D60" s="94"/>
+      <c r="E60" s="94"/>
       <c r="F60" s="40">
         <f>SUM(F52:F59)</f>
         <v>6</v>
@@ -2836,10 +2833,10 @@
       <c r="B61" s="38">
         <v>17</v>
       </c>
-      <c r="C61" s="99" t="s">
+      <c r="C61" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="100" t="s">
+      <c r="D61" s="92" t="s">
         <v>39</v>
       </c>
       <c r="E61" s="39" t="s">
@@ -2849,16 +2846,16 @@
         <f>240+12</f>
         <v>252</v>
       </c>
-      <c r="G61" s="94" t="s">
+      <c r="G61" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="H61" s="101" t="s">
+      <c r="H61" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="I61" s="93" t="s">
+      <c r="I61" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="J61" s="94"/>
+      <c r="J61" s="88"/>
       <c r="L61" s="13"/>
       <c r="M61" s="14"/>
       <c r="N61" s="14"/>
@@ -2867,8 +2864,8 @@
       <c r="B62" s="38">
         <v>18</v>
       </c>
-      <c r="C62" s="99"/>
-      <c r="D62" s="100"/>
+      <c r="C62" s="96"/>
+      <c r="D62" s="92"/>
       <c r="E62" s="39" t="s">
         <v>28</v>
       </c>
@@ -2876,10 +2873,10 @@
         <f>100+42</f>
         <v>142</v>
       </c>
-      <c r="G62" s="94"/>
-      <c r="H62" s="101"/>
-      <c r="I62" s="93"/>
-      <c r="J62" s="94"/>
+      <c r="G62" s="88"/>
+      <c r="H62" s="93"/>
+      <c r="I62" s="89"/>
+      <c r="J62" s="88"/>
       <c r="L62" s="13"/>
       <c r="M62" s="14"/>
       <c r="N62" s="14"/>
@@ -2888,8 +2885,8 @@
       <c r="B63" s="38">
         <v>19</v>
       </c>
-      <c r="C63" s="99"/>
-      <c r="D63" s="100"/>
+      <c r="C63" s="96"/>
+      <c r="D63" s="92"/>
       <c r="E63" s="39" t="s">
         <v>29</v>
       </c>
@@ -2897,10 +2894,10 @@
         <f>341+1</f>
         <v>342</v>
       </c>
-      <c r="G63" s="94"/>
-      <c r="H63" s="101"/>
-      <c r="I63" s="93"/>
-      <c r="J63" s="94"/>
+      <c r="G63" s="88"/>
+      <c r="H63" s="93"/>
+      <c r="I63" s="89"/>
+      <c r="J63" s="88"/>
       <c r="L63" s="13"/>
       <c r="M63" s="14"/>
       <c r="N63" s="14"/>
@@ -2909,8 +2906,8 @@
       <c r="B64" s="38">
         <v>20</v>
       </c>
-      <c r="C64" s="99"/>
-      <c r="D64" s="100"/>
+      <c r="C64" s="96"/>
+      <c r="D64" s="92"/>
       <c r="E64" s="39" t="s">
         <v>30</v>
       </c>
@@ -2918,10 +2915,10 @@
         <f>0+26</f>
         <v>26</v>
       </c>
-      <c r="G64" s="94"/>
-      <c r="H64" s="101"/>
-      <c r="I64" s="93"/>
-      <c r="J64" s="94"/>
+      <c r="G64" s="88"/>
+      <c r="H64" s="93"/>
+      <c r="I64" s="89"/>
+      <c r="J64" s="88"/>
       <c r="L64" s="13"/>
       <c r="M64" s="14"/>
       <c r="N64" s="14"/>
@@ -2930,8 +2927,8 @@
       <c r="B65" s="38">
         <v>21</v>
       </c>
-      <c r="C65" s="99"/>
-      <c r="D65" s="100"/>
+      <c r="C65" s="96"/>
+      <c r="D65" s="92"/>
       <c r="E65" s="39" t="s">
         <v>31</v>
       </c>
@@ -2939,10 +2936,10 @@
         <f>131+5</f>
         <v>136</v>
       </c>
-      <c r="G65" s="94"/>
-      <c r="H65" s="101"/>
-      <c r="I65" s="93"/>
-      <c r="J65" s="94"/>
+      <c r="G65" s="88"/>
+      <c r="H65" s="93"/>
+      <c r="I65" s="89"/>
+      <c r="J65" s="88"/>
       <c r="L65" s="13"/>
       <c r="M65" s="14"/>
       <c r="N65" s="14"/>
@@ -2951,8 +2948,8 @@
       <c r="B66" s="38">
         <v>22</v>
       </c>
-      <c r="C66" s="100"/>
-      <c r="D66" s="100"/>
+      <c r="C66" s="92"/>
+      <c r="D66" s="92"/>
       <c r="E66" s="39" t="s">
         <v>32</v>
       </c>
@@ -2960,10 +2957,10 @@
         <f>107+35</f>
         <v>142</v>
       </c>
-      <c r="G66" s="94"/>
-      <c r="H66" s="101"/>
-      <c r="I66" s="93"/>
-      <c r="J66" s="94"/>
+      <c r="G66" s="88"/>
+      <c r="H66" s="93"/>
+      <c r="I66" s="89"/>
+      <c r="J66" s="88"/>
       <c r="L66" s="13"/>
       <c r="M66" s="14"/>
       <c r="N66" s="14"/>
@@ -2972,8 +2969,8 @@
       <c r="B67" s="38">
         <v>23</v>
       </c>
-      <c r="C67" s="100"/>
-      <c r="D67" s="100"/>
+      <c r="C67" s="92"/>
+      <c r="D67" s="92"/>
       <c r="E67" s="39" t="s">
         <v>33</v>
       </c>
@@ -2981,10 +2978,10 @@
         <f>240+1</f>
         <v>241</v>
       </c>
-      <c r="G67" s="94"/>
-      <c r="H67" s="101"/>
-      <c r="I67" s="93"/>
-      <c r="J67" s="94"/>
+      <c r="G67" s="88"/>
+      <c r="H67" s="93"/>
+      <c r="I67" s="89"/>
+      <c r="J67" s="88"/>
       <c r="L67" s="13"/>
       <c r="M67" s="14"/>
       <c r="N67" s="14"/>
@@ -2993,8 +2990,8 @@
       <c r="B68" s="38">
         <v>24</v>
       </c>
-      <c r="C68" s="100"/>
-      <c r="D68" s="100"/>
+      <c r="C68" s="92"/>
+      <c r="D68" s="92"/>
       <c r="E68" s="39" t="s">
         <v>34</v>
       </c>
@@ -3002,10 +2999,10 @@
         <f>120+4</f>
         <v>124</v>
       </c>
-      <c r="G68" s="94"/>
-      <c r="H68" s="101"/>
-      <c r="I68" s="93"/>
-      <c r="J68" s="94"/>
+      <c r="G68" s="88"/>
+      <c r="H68" s="93"/>
+      <c r="I68" s="89"/>
+      <c r="J68" s="88"/>
       <c r="L68" s="13"/>
       <c r="M68" s="14"/>
       <c r="N68" s="14"/>
@@ -3052,68 +3049,68 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="L70" s="13"/>
-      <c r="M70" s="88"/>
-      <c r="N70" s="88"/>
+      <c r="M70" s="91"/>
+      <c r="N70" s="91"/>
     </row>
     <row r="71" spans="2:17" x14ac:dyDescent="0.25">
       <c r="L71" s="13"/>
-      <c r="M71" s="88"/>
-      <c r="N71" s="88"/>
+      <c r="M71" s="91"/>
+      <c r="N71" s="91"/>
     </row>
     <row r="72" spans="2:17" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B72" s="96" t="s">
+      <c r="B72" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="C72" s="97"/>
-      <c r="D72" s="97"/>
-      <c r="E72" s="97"/>
-      <c r="F72" s="97"/>
-      <c r="G72" s="97"/>
-      <c r="H72" s="97"/>
-      <c r="I72" s="97"/>
-      <c r="J72" s="97"/>
+      <c r="C72" s="90"/>
+      <c r="D72" s="90"/>
+      <c r="E72" s="90"/>
+      <c r="F72" s="90"/>
+      <c r="G72" s="90"/>
+      <c r="H72" s="90"/>
+      <c r="I72" s="90"/>
+      <c r="J72" s="90"/>
       <c r="L72" s="13"/>
-      <c r="M72" s="88"/>
-      <c r="N72" s="88"/>
+      <c r="M72" s="91"/>
+      <c r="N72" s="91"/>
     </row>
     <row r="73" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B73" s="94" t="s">
+      <c r="B73" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C73" s="94" t="s">
+      <c r="C73" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="D73" s="94" t="s">
+      <c r="D73" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="E73" s="94" t="s">
+      <c r="E73" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="F73" s="94" t="s">
+      <c r="F73" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="G73" s="94" t="s">
+      <c r="G73" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="H73" s="93" t="s">
+      <c r="H73" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="I73" s="94" t="s">
+      <c r="I73" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="J73" s="94"/>
+      <c r="J73" s="88"/>
       <c r="L73" s="13"/>
-      <c r="M73" s="88"/>
-      <c r="N73" s="88"/>
+      <c r="M73" s="91"/>
+      <c r="N73" s="91"/>
     </row>
     <row r="74" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B74" s="94"/>
-      <c r="C74" s="94"/>
-      <c r="D74" s="94"/>
-      <c r="E74" s="94"/>
-      <c r="F74" s="94"/>
-      <c r="G74" s="94"/>
-      <c r="H74" s="93"/>
+      <c r="B74" s="88"/>
+      <c r="C74" s="88"/>
+      <c r="D74" s="88"/>
+      <c r="E74" s="88"/>
+      <c r="F74" s="88"/>
+      <c r="G74" s="88"/>
+      <c r="H74" s="89"/>
       <c r="I74" s="5" t="s">
         <v>9</v>
       </c>
@@ -3122,8 +3119,8 @@
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="13"/>
-      <c r="M74" s="88"/>
-      <c r="N74" s="88"/>
+      <c r="M74" s="91"/>
+      <c r="N74" s="91"/>
     </row>
     <row r="75" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B75" s="5">
@@ -3143,8 +3140,8 @@
       <c r="J75" s="36"/>
       <c r="K75" s="2"/>
       <c r="L75" s="13"/>
-      <c r="M75" s="88"/>
-      <c r="N75" s="88"/>
+      <c r="M75" s="91"/>
+      <c r="N75" s="91"/>
     </row>
     <row r="76" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B76" s="5">
@@ -3164,8 +3161,8 @@
       <c r="J76" s="36"/>
       <c r="K76" s="3"/>
       <c r="L76" s="13"/>
-      <c r="M76" s="88"/>
-      <c r="N76" s="88"/>
+      <c r="M76" s="91"/>
+      <c r="N76" s="91"/>
     </row>
     <row r="77" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B77" s="5">
@@ -3184,8 +3181,8 @@
       <c r="I77" s="36"/>
       <c r="J77" s="36"/>
       <c r="L77" s="13"/>
-      <c r="M77" s="88"/>
-      <c r="N77" s="88"/>
+      <c r="M77" s="91"/>
+      <c r="N77" s="91"/>
     </row>
     <row r="78" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B78" s="5">
@@ -3206,12 +3203,12 @@
       <c r="N78" s="14"/>
     </row>
     <row r="79" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B79" s="91" t="s">
+      <c r="B79" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="C79" s="91"/>
-      <c r="D79" s="91"/>
-      <c r="E79" s="91"/>
+      <c r="C79" s="97"/>
+      <c r="D79" s="97"/>
+      <c r="E79" s="97"/>
       <c r="F79" s="48">
         <f>SUM(F75:F78)</f>
         <v>0</v>
@@ -3221,8 +3218,8 @@
       <c r="I79" s="41"/>
       <c r="J79" s="41"/>
       <c r="L79" s="13"/>
-      <c r="M79" s="88"/>
-      <c r="N79" s="88"/>
+      <c r="M79" s="91"/>
+      <c r="N79" s="91"/>
     </row>
     <row r="80" spans="2:17" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B80" s="5"/>
@@ -3246,16 +3243,16 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="L80" s="13"/>
-      <c r="M80" s="88"/>
-      <c r="N80" s="88"/>
+      <c r="M80" s="91"/>
+      <c r="N80" s="91"/>
       <c r="Q80" s="49" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="81" spans="1:48" x14ac:dyDescent="0.25">
       <c r="L81" s="13"/>
-      <c r="M81" s="88"/>
-      <c r="N81" s="88"/>
+      <c r="M81" s="91"/>
+      <c r="N81" s="91"/>
     </row>
     <row r="82" spans="1:48" x14ac:dyDescent="0.25">
       <c r="L82" s="13"/>
@@ -3283,7 +3280,7 @@
       <c r="P83" s="52"/>
       <c r="Q83" s="52"/>
       <c r="R83" s="52"/>
-      <c r="S83" s="92"/>
+      <c r="S83" s="98"/>
       <c r="T83" s="52"/>
       <c r="U83" s="52"/>
       <c r="V83" s="52"/>
@@ -3313,7 +3310,7 @@
       <c r="P84" s="54"/>
       <c r="Q84" s="54"/>
       <c r="R84" s="54"/>
-      <c r="S84" s="92"/>
+      <c r="S84" s="98"/>
       <c r="T84" s="54"/>
       <c r="U84" s="54"/>
       <c r="V84" s="54"/>
@@ -3343,7 +3340,7 @@
       <c r="P85" s="54"/>
       <c r="Q85" s="54"/>
       <c r="R85" s="54"/>
-      <c r="S85" s="92"/>
+      <c r="S85" s="98"/>
       <c r="T85" s="54"/>
       <c r="U85" s="54"/>
       <c r="V85" s="54"/>
@@ -3383,7 +3380,7 @@
       <c r="P86" s="54"/>
       <c r="Q86" s="54"/>
       <c r="R86" s="54"/>
-      <c r="S86" s="92"/>
+      <c r="S86" s="98"/>
       <c r="T86" s="54"/>
       <c r="U86" s="54"/>
       <c r="V86" s="54"/>
@@ -3423,7 +3420,7 @@
       <c r="P87" s="54"/>
       <c r="Q87" s="54"/>
       <c r="R87" s="54"/>
-      <c r="S87" s="92"/>
+      <c r="S87" s="98"/>
       <c r="T87" s="54"/>
       <c r="U87" s="54"/>
       <c r="V87" s="54"/>
@@ -3463,7 +3460,7 @@
       <c r="P88" s="54"/>
       <c r="Q88" s="54"/>
       <c r="R88" s="54"/>
-      <c r="S88" s="92"/>
+      <c r="S88" s="98"/>
       <c r="T88" s="54"/>
       <c r="U88" s="54"/>
       <c r="V88" s="54"/>
@@ -3503,7 +3500,7 @@
       <c r="P89" s="54"/>
       <c r="Q89" s="54"/>
       <c r="R89" s="54"/>
-      <c r="S89" s="92"/>
+      <c r="S89" s="98"/>
       <c r="T89" s="54"/>
       <c r="U89" s="54"/>
       <c r="V89" s="54"/>
@@ -3543,7 +3540,7 @@
       <c r="P90" s="54"/>
       <c r="Q90" s="54"/>
       <c r="R90" s="54"/>
-      <c r="S90" s="92"/>
+      <c r="S90" s="98"/>
       <c r="T90" s="54"/>
       <c r="U90" s="54"/>
       <c r="V90" s="54"/>
@@ -3565,14 +3562,14 @@
       <c r="AL90" s="54"/>
       <c r="AM90" s="54"/>
       <c r="AO90" s="59"/>
-      <c r="AP90" s="89" t="s">
+      <c r="AP90" s="100" t="s">
         <v>48</v>
       </c>
-      <c r="AQ90" s="89"/>
-      <c r="AR90" s="89"/>
-      <c r="AS90" s="89"/>
-      <c r="AT90" s="89"/>
-      <c r="AU90" s="89"/>
+      <c r="AQ90" s="100"/>
+      <c r="AR90" s="100"/>
+      <c r="AS90" s="100"/>
+      <c r="AT90" s="100"/>
+      <c r="AU90" s="100"/>
       <c r="AV90" s="60"/>
     </row>
     <row r="91" spans="1:48" x14ac:dyDescent="0.25">
@@ -3583,7 +3580,7 @@
       <c r="P91" s="54"/>
       <c r="Q91" s="54"/>
       <c r="R91" s="54"/>
-      <c r="S91" s="92"/>
+      <c r="S91" s="98"/>
       <c r="T91" s="54"/>
       <c r="U91" s="54"/>
       <c r="V91" s="54"/>
@@ -3606,20 +3603,20 @@
       <c r="AM91" s="54"/>
       <c r="AO91" s="61"/>
       <c r="AP91" s="62"/>
-      <c r="AQ91" s="87" t="s">
+      <c r="AQ91" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="AR91" s="87"/>
-      <c r="AS91" s="87"/>
-      <c r="AT91" s="87"/>
-      <c r="AU91" s="87"/>
+      <c r="AR91" s="99"/>
+      <c r="AS91" s="99"/>
+      <c r="AT91" s="99"/>
+      <c r="AU91" s="99"/>
       <c r="AV91" s="63"/>
     </row>
     <row r="92" spans="1:48" x14ac:dyDescent="0.25">
       <c r="L92" s="13"/>
-      <c r="M92" s="88"/>
-      <c r="N92" s="88"/>
-      <c r="T92" s="90"/>
+      <c r="M92" s="91"/>
+      <c r="N92" s="91"/>
+      <c r="T92" s="101"/>
       <c r="Y92" s="64">
         <v>42753</v>
       </c>
@@ -3680,9 +3677,9 @@
     </row>
     <row r="93" spans="1:48" x14ac:dyDescent="0.25">
       <c r="L93" s="13"/>
-      <c r="M93" s="88"/>
-      <c r="N93" s="88"/>
-      <c r="T93" s="90"/>
+      <c r="M93" s="91"/>
+      <c r="N93" s="91"/>
+      <c r="T93" s="101"/>
       <c r="Y93" s="4"/>
       <c r="Z93" s="4"/>
       <c r="AA93" s="4"/>
@@ -3719,9 +3716,9 @@
     </row>
     <row r="94" spans="1:48" x14ac:dyDescent="0.25">
       <c r="L94" s="13"/>
-      <c r="M94" s="88"/>
-      <c r="N94" s="88"/>
-      <c r="T94" s="90"/>
+      <c r="M94" s="91"/>
+      <c r="N94" s="91"/>
+      <c r="T94" s="101"/>
       <c r="Y94" s="4"/>
       <c r="Z94" s="4"/>
       <c r="AA94" s="4"/>
@@ -3758,9 +3755,9 @@
     </row>
     <row r="95" spans="1:48" x14ac:dyDescent="0.25">
       <c r="L95" s="13"/>
-      <c r="M95" s="88"/>
-      <c r="N95" s="88"/>
-      <c r="T95" s="90"/>
+      <c r="M95" s="91"/>
+      <c r="N95" s="91"/>
+      <c r="T95" s="101"/>
       <c r="Y95" s="4"/>
       <c r="Z95" s="4"/>
       <c r="AA95" s="4"/>
@@ -3797,8 +3794,8 @@
     </row>
     <row r="96" spans="1:48" x14ac:dyDescent="0.25">
       <c r="L96" s="13"/>
-      <c r="M96" s="88"/>
-      <c r="N96" s="88"/>
+      <c r="M96" s="91"/>
+      <c r="N96" s="91"/>
       <c r="Y96" s="4"/>
       <c r="Z96" s="4"/>
       <c r="AA96" s="4"/>
@@ -4084,26 +4081,26 @@
     </row>
     <row r="105" spans="8:48" ht="18.75" x14ac:dyDescent="0.25">
       <c r="AO105" s="59"/>
-      <c r="AP105" s="89" t="s">
+      <c r="AP105" s="100" t="s">
         <v>70</v>
       </c>
-      <c r="AQ105" s="89"/>
-      <c r="AR105" s="89"/>
-      <c r="AS105" s="89"/>
-      <c r="AT105" s="89"/>
-      <c r="AU105" s="89"/>
+      <c r="AQ105" s="100"/>
+      <c r="AR105" s="100"/>
+      <c r="AS105" s="100"/>
+      <c r="AT105" s="100"/>
+      <c r="AU105" s="100"/>
       <c r="AV105" s="60"/>
     </row>
     <row r="106" spans="8:48" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AO106" s="61"/>
       <c r="AP106" s="62"/>
-      <c r="AQ106" s="87" t="s">
+      <c r="AQ106" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="AR106" s="87"/>
-      <c r="AS106" s="87"/>
-      <c r="AT106" s="87"/>
-      <c r="AU106" s="87"/>
+      <c r="AR106" s="99"/>
+      <c r="AS106" s="99"/>
+      <c r="AT106" s="99"/>
+      <c r="AU106" s="99"/>
       <c r="AV106" s="63"/>
     </row>
     <row r="107" spans="8:48" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4667,26 +4664,26 @@
         <v>0</v>
       </c>
       <c r="AO120" s="59"/>
-      <c r="AP120" s="89" t="s">
+      <c r="AP120" s="100" t="s">
         <v>70</v>
       </c>
-      <c r="AQ120" s="89"/>
-      <c r="AR120" s="89"/>
-      <c r="AS120" s="89"/>
-      <c r="AT120" s="89"/>
-      <c r="AU120" s="89"/>
+      <c r="AQ120" s="100"/>
+      <c r="AR120" s="100"/>
+      <c r="AS120" s="100"/>
+      <c r="AT120" s="100"/>
+      <c r="AU120" s="100"/>
       <c r="AV120" s="60"/>
     </row>
     <row r="121" spans="8:48" x14ac:dyDescent="0.25">
       <c r="AO121" s="61"/>
       <c r="AP121" s="62"/>
-      <c r="AQ121" s="87" t="s">
+      <c r="AQ121" s="99" t="s">
         <v>73</v>
       </c>
-      <c r="AR121" s="87"/>
-      <c r="AS121" s="87"/>
-      <c r="AT121" s="87"/>
-      <c r="AU121" s="87"/>
+      <c r="AR121" s="99"/>
+      <c r="AS121" s="99"/>
+      <c r="AT121" s="99"/>
+      <c r="AU121" s="99"/>
       <c r="AV121" s="63"/>
     </row>
     <row r="122" spans="8:48" x14ac:dyDescent="0.25">
@@ -5056,14 +5053,14 @@
       <c r="AJ135" s="4"/>
       <c r="AK135" s="4"/>
       <c r="AO135" s="59"/>
-      <c r="AP135" s="89" t="s">
+      <c r="AP135" s="100" t="s">
         <v>70</v>
       </c>
-      <c r="AQ135" s="89"/>
-      <c r="AR135" s="89"/>
-      <c r="AS135" s="89"/>
-      <c r="AT135" s="89"/>
-      <c r="AU135" s="89"/>
+      <c r="AQ135" s="100"/>
+      <c r="AR135" s="100"/>
+      <c r="AS135" s="100"/>
+      <c r="AT135" s="100"/>
+      <c r="AU135" s="100"/>
       <c r="AV135" s="60"/>
     </row>
     <row r="136" spans="25:48" x14ac:dyDescent="0.25">
@@ -5121,13 +5118,13 @@
       </c>
       <c r="AO136" s="61"/>
       <c r="AP136" s="62"/>
-      <c r="AQ136" s="87" t="s">
+      <c r="AQ136" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="AR136" s="87"/>
-      <c r="AS136" s="87"/>
-      <c r="AT136" s="87"/>
-      <c r="AU136" s="87"/>
+      <c r="AR136" s="99"/>
+      <c r="AS136" s="99"/>
+      <c r="AT136" s="99"/>
+      <c r="AU136" s="99"/>
       <c r="AV136" s="63"/>
     </row>
     <row r="137" spans="25:48" x14ac:dyDescent="0.25">
@@ -5183,7 +5180,7 @@
       </c>
       <c r="AQ139" s="70">
         <f>F26</f>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AR139" s="69"/>
       <c r="AS139" s="69"/>
@@ -5284,7 +5281,7 @@
       </c>
       <c r="AQ146" s="75">
         <f>SUM(AQ139:AQ145)</f>
-        <v>1637</v>
+        <v>1937</v>
       </c>
       <c r="AR146" s="75">
         <f t="shared" ref="AR146:AT146" si="10">SUM(AR139:AR145)</f>
@@ -5330,35 +5327,60 @@
     </row>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B34:J34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="AQ136:AU136"/>
+    <mergeCell ref="M96:N96"/>
+    <mergeCell ref="AP105:AU105"/>
+    <mergeCell ref="AQ106:AU106"/>
+    <mergeCell ref="AP120:AU120"/>
+    <mergeCell ref="AQ121:AU121"/>
+    <mergeCell ref="AP135:AU135"/>
+    <mergeCell ref="AP90:AU90"/>
+    <mergeCell ref="AQ91:AU91"/>
+    <mergeCell ref="M92:N92"/>
+    <mergeCell ref="T92:T95"/>
+    <mergeCell ref="M93:N93"/>
+    <mergeCell ref="M94:N94"/>
+    <mergeCell ref="M95:N95"/>
+    <mergeCell ref="M77:N77"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="M79:N79"/>
+    <mergeCell ref="M80:N80"/>
+    <mergeCell ref="M81:N81"/>
+    <mergeCell ref="S83:S91"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="M73:N73"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="M75:N75"/>
+    <mergeCell ref="M76:N76"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="J61:J68"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="M70:N70"/>
+    <mergeCell ref="M71:N71"/>
+    <mergeCell ref="B72:J72"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="C61:C68"/>
+    <mergeCell ref="D61:D68"/>
+    <mergeCell ref="G61:G68"/>
+    <mergeCell ref="H61:H68"/>
+    <mergeCell ref="I61:I68"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="C52:C59"/>
+    <mergeCell ref="D52:D59"/>
+    <mergeCell ref="G52:G59"/>
+    <mergeCell ref="H52:H59"/>
+    <mergeCell ref="I52:I59"/>
+    <mergeCell ref="J52:J59"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:J41"/>
     <mergeCell ref="M41:N41"/>
     <mergeCell ref="M42:N42"/>
     <mergeCell ref="C43:C50"/>
@@ -5377,60 +5399,35 @@
     <mergeCell ref="E41:E42"/>
     <mergeCell ref="F41:F42"/>
     <mergeCell ref="J43:J50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="C52:C59"/>
-    <mergeCell ref="D52:D59"/>
-    <mergeCell ref="G52:G59"/>
-    <mergeCell ref="H52:H59"/>
-    <mergeCell ref="I52:I59"/>
-    <mergeCell ref="J52:J59"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="J61:J68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="M70:N70"/>
-    <mergeCell ref="M71:N71"/>
-    <mergeCell ref="B72:J72"/>
-    <mergeCell ref="M72:N72"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="C61:C68"/>
-    <mergeCell ref="D61:D68"/>
-    <mergeCell ref="G61:G68"/>
-    <mergeCell ref="H61:H68"/>
-    <mergeCell ref="I61:I68"/>
-    <mergeCell ref="M77:N77"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="M79:N79"/>
-    <mergeCell ref="M80:N80"/>
-    <mergeCell ref="M81:N81"/>
-    <mergeCell ref="S83:S91"/>
-    <mergeCell ref="H73:H74"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="M73:N73"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="M75:N75"/>
-    <mergeCell ref="M76:N76"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="AQ136:AU136"/>
-    <mergeCell ref="M96:N96"/>
-    <mergeCell ref="AP105:AU105"/>
-    <mergeCell ref="AQ106:AU106"/>
-    <mergeCell ref="AP120:AU120"/>
-    <mergeCell ref="AQ121:AU121"/>
-    <mergeCell ref="AP135:AU135"/>
-    <mergeCell ref="AP90:AU90"/>
-    <mergeCell ref="AQ91:AU91"/>
-    <mergeCell ref="M92:N92"/>
-    <mergeCell ref="T92:T95"/>
-    <mergeCell ref="M93:N93"/>
-    <mergeCell ref="M94:N94"/>
-    <mergeCell ref="M95:N95"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B34:J34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:J23"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/ProducsBlocked.xlsx
+++ b/ProducsBlocked.xlsx
@@ -1616,7 +1616,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$AO$135:$AV$148" spid="_x0000_s1040"/>
+                  <a14:cameraTool cellRange="$AO$135:$AV$148" spid="_x0000_s1041"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1926,7 +1926,7 @@
   <dimension ref="A2:AV148"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="C13" sqref="C12:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2063,7 +2063,7 @@
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="9">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="11"/>
@@ -2082,7 +2082,7 @@
       <c r="E26" s="87"/>
       <c r="F26" s="15">
         <f>SUM(F25:F25)</f>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="16" t="s">
@@ -5180,7 +5180,7 @@
       </c>
       <c r="AQ139" s="70">
         <f>F26</f>
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="AR139" s="69"/>
       <c r="AS139" s="69"/>
@@ -5281,7 +5281,7 @@
       </c>
       <c r="AQ146" s="75">
         <f>SUM(AQ139:AQ145)</f>
-        <v>1937</v>
+        <v>2237</v>
       </c>
       <c r="AR146" s="75">
         <f t="shared" ref="AR146:AT146" si="10">SUM(AR139:AR145)</f>

--- a/ProducsBlocked.xlsx
+++ b/ProducsBlocked.xlsx
@@ -1616,7 +1616,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$AO$135:$AV$148" spid="_x0000_s1041"/>
+                  <a14:cameraTool cellRange="$AO$135:$AV$148" spid="_x0000_s1042"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1926,7 +1926,7 @@
   <dimension ref="A2:AV148"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C13" sqref="C12:C13"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2063,7 +2063,7 @@
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="9">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="11"/>
@@ -2082,7 +2082,7 @@
       <c r="E26" s="87"/>
       <c r="F26" s="15">
         <f>SUM(F25:F25)</f>
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="16" t="s">
@@ -5180,7 +5180,7 @@
       </c>
       <c r="AQ139" s="70">
         <f>F26</f>
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="AR139" s="69"/>
       <c r="AS139" s="69"/>
@@ -5281,7 +5281,7 @@
       </c>
       <c r="AQ146" s="75">
         <f>SUM(AQ139:AQ145)</f>
-        <v>2237</v>
+        <v>2537</v>
       </c>
       <c r="AR146" s="75">
         <f t="shared" ref="AR146:AT146" si="10">SUM(AR139:AR145)</f>

--- a/ProducsBlocked.xlsx
+++ b/ProducsBlocked.xlsx
@@ -1530,50 +1530,50 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1616,7 +1616,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$AO$135:$AV$148" spid="_x0000_s1040"/>
+                  <a14:cameraTool cellRange="$AO$135:$AV$148" spid="_x0000_s1041"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1926,7 +1926,7 @@
   <dimension ref="A2:AV148"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2001,53 +2001,53 @@
       <c r="C12" s="1"/>
     </row>
     <row r="22" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="87"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="87"/>
+      <c r="B22" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="96"/>
+      <c r="J22" s="96"/>
     </row>
     <row r="23" spans="2:14" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="88" t="s">
+      <c r="B23" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="88" t="s">
+      <c r="C23" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="88" t="s">
+      <c r="D23" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="88" t="s">
+      <c r="E23" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="F23" s="88" t="s">
+      <c r="F23" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="G23" s="88" t="s">
+      <c r="G23" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="H23" s="89" t="s">
+      <c r="H23" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="I23" s="88" t="s">
+      <c r="I23" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="J23" s="88"/>
+      <c r="J23" s="94"/>
     </row>
     <row r="24" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="88"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="89"/>
+      <c r="B24" s="94"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="93"/>
       <c r="I24" s="5" t="s">
         <v>9</v>
       </c>
@@ -2063,7 +2063,7 @@
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="9">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="11"/>
@@ -2076,13 +2076,13 @@
     <row r="26" spans="2:14" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="87" t="s">
+      <c r="D26" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="87"/>
+      <c r="E26" s="96"/>
       <c r="F26" s="15">
         <f>SUM(F25:F25)</f>
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="16" t="s">
@@ -2109,59 +2109,59 @@
       <c r="N27" s="14"/>
     </row>
     <row r="28" spans="2:14" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="87" t="s">
+      <c r="B28" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="90"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="90"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="90"/>
-      <c r="J28" s="90"/>
+      <c r="C28" s="97"/>
+      <c r="D28" s="97"/>
+      <c r="E28" s="97"/>
+      <c r="F28" s="97"/>
+      <c r="G28" s="97"/>
+      <c r="H28" s="97"/>
+      <c r="I28" s="97"/>
+      <c r="J28" s="97"/>
       <c r="L28" s="13"/>
       <c r="M28" s="14"/>
       <c r="N28" s="14"/>
     </row>
     <row r="29" spans="2:14" s="2" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="88" t="s">
+      <c r="B29" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="88" t="s">
+      <c r="C29" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="88" t="s">
+      <c r="D29" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="88" t="s">
+      <c r="E29" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="88" t="s">
+      <c r="F29" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="88" t="s">
+      <c r="G29" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="H29" s="89" t="s">
+      <c r="H29" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="I29" s="88" t="s">
+      <c r="I29" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="88"/>
+      <c r="J29" s="94"/>
       <c r="L29" s="13"/>
       <c r="M29" s="14"/>
       <c r="N29" s="14"/>
     </row>
     <row r="30" spans="2:14" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="88"/>
-      <c r="C30" s="88"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="88"/>
-      <c r="G30" s="88"/>
-      <c r="H30" s="89"/>
+      <c r="B30" s="94"/>
+      <c r="C30" s="94"/>
+      <c r="D30" s="94"/>
+      <c r="E30" s="94"/>
+      <c r="F30" s="94"/>
+      <c r="G30" s="94"/>
+      <c r="H30" s="93"/>
       <c r="I30" s="5" t="s">
         <v>9</v>
       </c>
@@ -2203,10 +2203,10 @@
     <row r="32" spans="2:14" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="87" t="s">
+      <c r="D32" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="87"/>
+      <c r="E32" s="96"/>
       <c r="F32" s="15">
         <f>SUM(F31:F31)</f>
         <v>0</v>
@@ -2242,59 +2242,59 @@
       <c r="N33" s="14"/>
     </row>
     <row r="34" spans="1:14" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="87" t="s">
+      <c r="B34" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="90"/>
-      <c r="D34" s="90"/>
-      <c r="E34" s="90"/>
-      <c r="F34" s="90"/>
-      <c r="G34" s="90"/>
-      <c r="H34" s="90"/>
-      <c r="I34" s="90"/>
-      <c r="J34" s="90"/>
+      <c r="C34" s="97"/>
+      <c r="D34" s="97"/>
+      <c r="E34" s="97"/>
+      <c r="F34" s="97"/>
+      <c r="G34" s="97"/>
+      <c r="H34" s="97"/>
+      <c r="I34" s="97"/>
+      <c r="J34" s="97"/>
       <c r="L34" s="13"/>
       <c r="M34" s="14"/>
       <c r="N34" s="14"/>
     </row>
     <row r="35" spans="1:14" s="2" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="88" t="s">
+      <c r="B35" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="88" t="s">
+      <c r="C35" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="88" t="s">
+      <c r="D35" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="88" t="s">
+      <c r="E35" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="F35" s="88" t="s">
+      <c r="F35" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="G35" s="88" t="s">
+      <c r="G35" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="H35" s="89" t="s">
+      <c r="H35" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="I35" s="88" t="s">
+      <c r="I35" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="J35" s="88"/>
+      <c r="J35" s="94"/>
       <c r="L35" s="13"/>
       <c r="M35" s="14"/>
       <c r="N35" s="14"/>
     </row>
     <row r="36" spans="1:14" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="88"/>
-      <c r="C36" s="88"/>
-      <c r="D36" s="88"/>
-      <c r="E36" s="88"/>
-      <c r="F36" s="88"/>
-      <c r="G36" s="88"/>
-      <c r="H36" s="89"/>
+      <c r="B36" s="94"/>
+      <c r="C36" s="94"/>
+      <c r="D36" s="94"/>
+      <c r="E36" s="94"/>
+      <c r="F36" s="94"/>
+      <c r="G36" s="94"/>
+      <c r="H36" s="93"/>
       <c r="I36" s="5" t="s">
         <v>9</v>
       </c>
@@ -2324,10 +2324,10 @@
     <row r="38" spans="1:14" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="87" t="s">
+      <c r="D38" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="E38" s="87"/>
+      <c r="E38" s="96"/>
       <c r="F38" s="15">
         <f>SUM(F37:F37)</f>
         <v>0</v>
@@ -2345,68 +2345,68 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="L38" s="13"/>
-      <c r="M38" s="91"/>
-      <c r="N38" s="91"/>
+      <c r="M38" s="88"/>
+      <c r="N38" s="88"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L39" s="13"/>
-      <c r="M39" s="91"/>
-      <c r="N39" s="91"/>
+      <c r="M39" s="88"/>
+      <c r="N39" s="88"/>
     </row>
     <row r="40" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B40" s="87" t="s">
+      <c r="B40" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="90"/>
-      <c r="D40" s="90"/>
-      <c r="E40" s="90"/>
-      <c r="F40" s="90"/>
-      <c r="G40" s="90"/>
-      <c r="H40" s="90"/>
-      <c r="I40" s="90"/>
-      <c r="J40" s="90"/>
+      <c r="C40" s="97"/>
+      <c r="D40" s="97"/>
+      <c r="E40" s="97"/>
+      <c r="F40" s="97"/>
+      <c r="G40" s="97"/>
+      <c r="H40" s="97"/>
+      <c r="I40" s="97"/>
+      <c r="J40" s="97"/>
       <c r="L40" s="13"/>
-      <c r="M40" s="91"/>
-      <c r="N40" s="91"/>
+      <c r="M40" s="88"/>
+      <c r="N40" s="88"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B41" s="88" t="s">
+      <c r="B41" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="88" t="s">
+      <c r="C41" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="D41" s="88" t="s">
+      <c r="D41" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="E41" s="88" t="s">
+      <c r="E41" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="F41" s="88" t="s">
+      <c r="F41" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="G41" s="88" t="s">
+      <c r="G41" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="H41" s="89" t="s">
+      <c r="H41" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="I41" s="88" t="s">
+      <c r="I41" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="J41" s="88"/>
+      <c r="J41" s="94"/>
       <c r="L41" s="13"/>
-      <c r="M41" s="91"/>
-      <c r="N41" s="91"/>
+      <c r="M41" s="88"/>
+      <c r="N41" s="88"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B42" s="88"/>
-      <c r="C42" s="88"/>
-      <c r="D42" s="88"/>
-      <c r="E42" s="88"/>
-      <c r="F42" s="88"/>
-      <c r="G42" s="88"/>
-      <c r="H42" s="89"/>
+      <c r="B42" s="94"/>
+      <c r="C42" s="94"/>
+      <c r="D42" s="94"/>
+      <c r="E42" s="94"/>
+      <c r="F42" s="94"/>
+      <c r="G42" s="94"/>
+      <c r="H42" s="93"/>
       <c r="I42" s="5" t="s">
         <v>9</v>
       </c>
@@ -2414,8 +2414,8 @@
         <v>10</v>
       </c>
       <c r="L42" s="13"/>
-      <c r="M42" s="91"/>
-      <c r="N42" s="91"/>
+      <c r="M42" s="88"/>
+      <c r="N42" s="88"/>
     </row>
     <row r="43" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="37">
@@ -2425,10 +2425,10 @@
       <c r="B43" s="38">
         <v>1</v>
       </c>
-      <c r="C43" s="92" t="s">
+      <c r="C43" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="92" t="s">
+      <c r="D43" s="100" t="s">
         <v>24</v>
       </c>
       <c r="E43" s="39" t="s">
@@ -2437,16 +2437,16 @@
       <c r="F43" s="38">
         <v>24</v>
       </c>
-      <c r="G43" s="88" t="s">
+      <c r="G43" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="H43" s="93" t="s">
+      <c r="H43" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="I43" s="89" t="s">
+      <c r="I43" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="J43" s="88"/>
+      <c r="J43" s="94"/>
       <c r="L43" s="13"/>
       <c r="M43" s="14"/>
       <c r="N43" s="14"/>
@@ -2459,18 +2459,18 @@
       <c r="B44" s="38">
         <v>2</v>
       </c>
-      <c r="C44" s="92"/>
-      <c r="D44" s="92"/>
+      <c r="C44" s="100"/>
+      <c r="D44" s="100"/>
       <c r="E44" s="39" t="s">
         <v>28</v>
       </c>
       <c r="F44" s="38">
         <v>24</v>
       </c>
-      <c r="G44" s="88"/>
-      <c r="H44" s="93"/>
-      <c r="I44" s="88"/>
-      <c r="J44" s="88"/>
+      <c r="G44" s="94"/>
+      <c r="H44" s="101"/>
+      <c r="I44" s="94"/>
+      <c r="J44" s="94"/>
       <c r="L44" s="13"/>
       <c r="M44" s="14"/>
       <c r="N44" s="14"/>
@@ -2483,18 +2483,18 @@
       <c r="B45" s="38">
         <v>3</v>
       </c>
-      <c r="C45" s="92"/>
-      <c r="D45" s="92"/>
+      <c r="C45" s="100"/>
+      <c r="D45" s="100"/>
       <c r="E45" s="39" t="s">
         <v>29</v>
       </c>
       <c r="F45" s="38">
         <v>73</v>
       </c>
-      <c r="G45" s="88"/>
-      <c r="H45" s="93"/>
-      <c r="I45" s="88"/>
-      <c r="J45" s="88"/>
+      <c r="G45" s="94"/>
+      <c r="H45" s="101"/>
+      <c r="I45" s="94"/>
+      <c r="J45" s="94"/>
       <c r="L45" s="13"/>
       <c r="M45" s="14"/>
       <c r="N45" s="14"/>
@@ -2507,18 +2507,18 @@
       <c r="B46" s="38">
         <v>4</v>
       </c>
-      <c r="C46" s="92"/>
-      <c r="D46" s="92"/>
+      <c r="C46" s="100"/>
+      <c r="D46" s="100"/>
       <c r="E46" s="39" t="s">
         <v>30</v>
       </c>
       <c r="F46" s="38">
         <v>73</v>
       </c>
-      <c r="G46" s="88"/>
-      <c r="H46" s="93"/>
-      <c r="I46" s="88"/>
-      <c r="J46" s="88"/>
+      <c r="G46" s="94"/>
+      <c r="H46" s="101"/>
+      <c r="I46" s="94"/>
+      <c r="J46" s="94"/>
       <c r="L46" s="13"/>
       <c r="M46" s="14"/>
       <c r="N46" s="14"/>
@@ -2531,18 +2531,18 @@
       <c r="B47" s="38">
         <v>5</v>
       </c>
-      <c r="C47" s="92"/>
-      <c r="D47" s="92"/>
+      <c r="C47" s="100"/>
+      <c r="D47" s="100"/>
       <c r="E47" s="39" t="s">
         <v>31</v>
       </c>
       <c r="F47" s="38">
         <v>11</v>
       </c>
-      <c r="G47" s="88"/>
-      <c r="H47" s="93"/>
-      <c r="I47" s="88"/>
-      <c r="J47" s="88"/>
+      <c r="G47" s="94"/>
+      <c r="H47" s="101"/>
+      <c r="I47" s="94"/>
+      <c r="J47" s="94"/>
       <c r="L47" s="13"/>
       <c r="M47" s="14"/>
       <c r="N47" s="14"/>
@@ -2555,18 +2555,18 @@
       <c r="B48" s="38">
         <v>6</v>
       </c>
-      <c r="C48" s="92"/>
-      <c r="D48" s="92"/>
+      <c r="C48" s="100"/>
+      <c r="D48" s="100"/>
       <c r="E48" s="39" t="s">
         <v>32</v>
       </c>
       <c r="F48" s="38">
         <v>11</v>
       </c>
-      <c r="G48" s="88"/>
-      <c r="H48" s="93"/>
-      <c r="I48" s="88"/>
-      <c r="J48" s="88"/>
+      <c r="G48" s="94"/>
+      <c r="H48" s="101"/>
+      <c r="I48" s="94"/>
+      <c r="J48" s="94"/>
       <c r="L48" s="13"/>
       <c r="M48" s="14"/>
       <c r="N48" s="14"/>
@@ -2579,18 +2579,18 @@
       <c r="B49" s="38">
         <v>7</v>
       </c>
-      <c r="C49" s="92"/>
-      <c r="D49" s="92"/>
+      <c r="C49" s="100"/>
+      <c r="D49" s="100"/>
       <c r="E49" s="39" t="s">
         <v>33</v>
       </c>
       <c r="F49" s="38">
         <v>5</v>
       </c>
-      <c r="G49" s="88"/>
-      <c r="H49" s="93"/>
-      <c r="I49" s="88"/>
-      <c r="J49" s="88"/>
+      <c r="G49" s="94"/>
+      <c r="H49" s="101"/>
+      <c r="I49" s="94"/>
+      <c r="J49" s="94"/>
       <c r="L49" s="13"/>
       <c r="M49" s="14"/>
       <c r="N49" s="14"/>
@@ -2603,29 +2603,29 @@
       <c r="B50" s="38">
         <v>8</v>
       </c>
-      <c r="C50" s="92"/>
-      <c r="D50" s="92"/>
+      <c r="C50" s="100"/>
+      <c r="D50" s="100"/>
       <c r="E50" s="39" t="s">
         <v>34</v>
       </c>
       <c r="F50" s="38">
         <v>5</v>
       </c>
-      <c r="G50" s="88"/>
-      <c r="H50" s="93"/>
-      <c r="I50" s="88"/>
-      <c r="J50" s="88"/>
+      <c r="G50" s="94"/>
+      <c r="H50" s="101"/>
+      <c r="I50" s="94"/>
+      <c r="J50" s="94"/>
       <c r="L50" s="13"/>
       <c r="M50" s="14"/>
       <c r="N50" s="14"/>
     </row>
     <row r="51" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="94" t="s">
+      <c r="B51" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="C51" s="94"/>
-      <c r="D51" s="94"/>
-      <c r="E51" s="94"/>
+      <c r="C51" s="98"/>
+      <c r="D51" s="98"/>
+      <c r="E51" s="98"/>
       <c r="F51" s="40">
         <f>SUM(F43:F50)</f>
         <v>226</v>
@@ -2643,10 +2643,10 @@
       <c r="B52" s="38">
         <v>9</v>
       </c>
-      <c r="C52" s="92" t="s">
+      <c r="C52" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="D52" s="92" t="s">
+      <c r="D52" s="100" t="s">
         <v>36</v>
       </c>
       <c r="E52" s="39" t="s">
@@ -2655,16 +2655,16 @@
       <c r="F52" s="43">
         <v>0</v>
       </c>
-      <c r="G52" s="88" t="s">
+      <c r="G52" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="H52" s="93" t="s">
+      <c r="H52" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="I52" s="89" t="s">
+      <c r="I52" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="J52" s="88"/>
+      <c r="J52" s="94"/>
       <c r="L52" s="13"/>
       <c r="M52" s="14"/>
       <c r="N52" s="14"/>
@@ -2673,18 +2673,18 @@
       <c r="B53" s="38">
         <v>10</v>
       </c>
-      <c r="C53" s="92"/>
-      <c r="D53" s="92"/>
+      <c r="C53" s="100"/>
+      <c r="D53" s="100"/>
       <c r="E53" s="39" t="s">
         <v>28</v>
       </c>
       <c r="F53" s="44">
         <v>6</v>
       </c>
-      <c r="G53" s="88"/>
-      <c r="H53" s="93"/>
-      <c r="I53" s="88"/>
-      <c r="J53" s="88"/>
+      <c r="G53" s="94"/>
+      <c r="H53" s="101"/>
+      <c r="I53" s="94"/>
+      <c r="J53" s="94"/>
       <c r="L53" s="13"/>
       <c r="M53" s="14"/>
       <c r="N53" s="14"/>
@@ -2693,18 +2693,18 @@
       <c r="B54" s="38">
         <v>11</v>
       </c>
-      <c r="C54" s="92"/>
-      <c r="D54" s="92"/>
+      <c r="C54" s="100"/>
+      <c r="D54" s="100"/>
       <c r="E54" s="39" t="s">
         <v>29</v>
       </c>
       <c r="F54" s="43">
         <v>0</v>
       </c>
-      <c r="G54" s="88"/>
-      <c r="H54" s="93"/>
-      <c r="I54" s="88"/>
-      <c r="J54" s="88"/>
+      <c r="G54" s="94"/>
+      <c r="H54" s="101"/>
+      <c r="I54" s="94"/>
+      <c r="J54" s="94"/>
       <c r="L54" s="13"/>
       <c r="M54" s="14"/>
       <c r="N54" s="14"/>
@@ -2713,18 +2713,18 @@
       <c r="B55" s="38">
         <v>12</v>
       </c>
-      <c r="C55" s="92"/>
-      <c r="D55" s="92"/>
+      <c r="C55" s="100"/>
+      <c r="D55" s="100"/>
       <c r="E55" s="39" t="s">
         <v>30</v>
       </c>
       <c r="F55" s="43">
         <v>0</v>
       </c>
-      <c r="G55" s="88"/>
-      <c r="H55" s="93"/>
-      <c r="I55" s="88"/>
-      <c r="J55" s="88"/>
+      <c r="G55" s="94"/>
+      <c r="H55" s="101"/>
+      <c r="I55" s="94"/>
+      <c r="J55" s="94"/>
       <c r="L55" s="13"/>
       <c r="M55" s="14"/>
       <c r="N55" s="14"/>
@@ -2733,18 +2733,18 @@
       <c r="B56" s="38">
         <v>13</v>
       </c>
-      <c r="C56" s="92"/>
-      <c r="D56" s="92"/>
+      <c r="C56" s="100"/>
+      <c r="D56" s="100"/>
       <c r="E56" s="39" t="s">
         <v>31</v>
       </c>
       <c r="F56" s="43">
         <v>0</v>
       </c>
-      <c r="G56" s="88"/>
-      <c r="H56" s="93"/>
-      <c r="I56" s="88"/>
-      <c r="J56" s="88"/>
+      <c r="G56" s="94"/>
+      <c r="H56" s="101"/>
+      <c r="I56" s="94"/>
+      <c r="J56" s="94"/>
       <c r="L56" s="13"/>
       <c r="M56" s="14"/>
       <c r="N56" s="14"/>
@@ -2753,18 +2753,18 @@
       <c r="B57" s="38">
         <v>14</v>
       </c>
-      <c r="C57" s="92"/>
-      <c r="D57" s="92"/>
+      <c r="C57" s="100"/>
+      <c r="D57" s="100"/>
       <c r="E57" s="39" t="s">
         <v>32</v>
       </c>
       <c r="F57" s="43">
         <v>0</v>
       </c>
-      <c r="G57" s="88"/>
-      <c r="H57" s="93"/>
-      <c r="I57" s="88"/>
-      <c r="J57" s="88"/>
+      <c r="G57" s="94"/>
+      <c r="H57" s="101"/>
+      <c r="I57" s="94"/>
+      <c r="J57" s="94"/>
       <c r="L57" s="13"/>
       <c r="M57" s="14"/>
       <c r="N57" s="14"/>
@@ -2773,18 +2773,18 @@
       <c r="B58" s="38">
         <v>15</v>
       </c>
-      <c r="C58" s="92"/>
-      <c r="D58" s="92"/>
+      <c r="C58" s="100"/>
+      <c r="D58" s="100"/>
       <c r="E58" s="39" t="s">
         <v>33</v>
       </c>
       <c r="F58" s="43">
         <v>0</v>
       </c>
-      <c r="G58" s="88"/>
-      <c r="H58" s="93"/>
-      <c r="I58" s="88"/>
-      <c r="J58" s="88"/>
+      <c r="G58" s="94"/>
+      <c r="H58" s="101"/>
+      <c r="I58" s="94"/>
+      <c r="J58" s="94"/>
       <c r="L58" s="13"/>
       <c r="M58" s="14"/>
       <c r="N58" s="14"/>
@@ -2793,29 +2793,29 @@
       <c r="B59" s="38">
         <v>16</v>
       </c>
-      <c r="C59" s="92"/>
-      <c r="D59" s="92"/>
+      <c r="C59" s="100"/>
+      <c r="D59" s="100"/>
       <c r="E59" s="39" t="s">
         <v>34</v>
       </c>
       <c r="F59" s="43">
         <v>0</v>
       </c>
-      <c r="G59" s="88"/>
-      <c r="H59" s="93"/>
-      <c r="I59" s="88"/>
-      <c r="J59" s="88"/>
+      <c r="G59" s="94"/>
+      <c r="H59" s="101"/>
+      <c r="I59" s="94"/>
+      <c r="J59" s="94"/>
       <c r="L59" s="13"/>
       <c r="M59" s="14"/>
       <c r="N59" s="14"/>
     </row>
     <row r="60" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="94" t="s">
+      <c r="B60" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="C60" s="94"/>
-      <c r="D60" s="94"/>
-      <c r="E60" s="94"/>
+      <c r="C60" s="98"/>
+      <c r="D60" s="98"/>
+      <c r="E60" s="98"/>
       <c r="F60" s="40">
         <f>SUM(F52:F59)</f>
         <v>6</v>
@@ -2833,10 +2833,10 @@
       <c r="B61" s="38">
         <v>17</v>
       </c>
-      <c r="C61" s="96" t="s">
+      <c r="C61" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="92" t="s">
+      <c r="D61" s="100" t="s">
         <v>39</v>
       </c>
       <c r="E61" s="39" t="s">
@@ -2846,16 +2846,16 @@
         <f>240+12</f>
         <v>252</v>
       </c>
-      <c r="G61" s="88" t="s">
+      <c r="G61" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="H61" s="93" t="s">
+      <c r="H61" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="I61" s="89" t="s">
+      <c r="I61" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="J61" s="88"/>
+      <c r="J61" s="94"/>
       <c r="L61" s="13"/>
       <c r="M61" s="14"/>
       <c r="N61" s="14"/>
@@ -2864,8 +2864,8 @@
       <c r="B62" s="38">
         <v>18</v>
       </c>
-      <c r="C62" s="96"/>
-      <c r="D62" s="92"/>
+      <c r="C62" s="99"/>
+      <c r="D62" s="100"/>
       <c r="E62" s="39" t="s">
         <v>28</v>
       </c>
@@ -2873,10 +2873,10 @@
         <f>100+42</f>
         <v>142</v>
       </c>
-      <c r="G62" s="88"/>
-      <c r="H62" s="93"/>
-      <c r="I62" s="89"/>
-      <c r="J62" s="88"/>
+      <c r="G62" s="94"/>
+      <c r="H62" s="101"/>
+      <c r="I62" s="93"/>
+      <c r="J62" s="94"/>
       <c r="L62" s="13"/>
       <c r="M62" s="14"/>
       <c r="N62" s="14"/>
@@ -2885,8 +2885,8 @@
       <c r="B63" s="38">
         <v>19</v>
       </c>
-      <c r="C63" s="96"/>
-      <c r="D63" s="92"/>
+      <c r="C63" s="99"/>
+      <c r="D63" s="100"/>
       <c r="E63" s="39" t="s">
         <v>29</v>
       </c>
@@ -2894,10 +2894,10 @@
         <f>341+1</f>
         <v>342</v>
       </c>
-      <c r="G63" s="88"/>
-      <c r="H63" s="93"/>
-      <c r="I63" s="89"/>
-      <c r="J63" s="88"/>
+      <c r="G63" s="94"/>
+      <c r="H63" s="101"/>
+      <c r="I63" s="93"/>
+      <c r="J63" s="94"/>
       <c r="L63" s="13"/>
       <c r="M63" s="14"/>
       <c r="N63" s="14"/>
@@ -2906,8 +2906,8 @@
       <c r="B64" s="38">
         <v>20</v>
       </c>
-      <c r="C64" s="96"/>
-      <c r="D64" s="92"/>
+      <c r="C64" s="99"/>
+      <c r="D64" s="100"/>
       <c r="E64" s="39" t="s">
         <v>30</v>
       </c>
@@ -2915,10 +2915,10 @@
         <f>0+26</f>
         <v>26</v>
       </c>
-      <c r="G64" s="88"/>
-      <c r="H64" s="93"/>
-      <c r="I64" s="89"/>
-      <c r="J64" s="88"/>
+      <c r="G64" s="94"/>
+      <c r="H64" s="101"/>
+      <c r="I64" s="93"/>
+      <c r="J64" s="94"/>
       <c r="L64" s="13"/>
       <c r="M64" s="14"/>
       <c r="N64" s="14"/>
@@ -2927,8 +2927,8 @@
       <c r="B65" s="38">
         <v>21</v>
       </c>
-      <c r="C65" s="96"/>
-      <c r="D65" s="92"/>
+      <c r="C65" s="99"/>
+      <c r="D65" s="100"/>
       <c r="E65" s="39" t="s">
         <v>31</v>
       </c>
@@ -2936,10 +2936,10 @@
         <f>131+5</f>
         <v>136</v>
       </c>
-      <c r="G65" s="88"/>
-      <c r="H65" s="93"/>
-      <c r="I65" s="89"/>
-      <c r="J65" s="88"/>
+      <c r="G65" s="94"/>
+      <c r="H65" s="101"/>
+      <c r="I65" s="93"/>
+      <c r="J65" s="94"/>
       <c r="L65" s="13"/>
       <c r="M65" s="14"/>
       <c r="N65" s="14"/>
@@ -2948,8 +2948,8 @@
       <c r="B66" s="38">
         <v>22</v>
       </c>
-      <c r="C66" s="92"/>
-      <c r="D66" s="92"/>
+      <c r="C66" s="100"/>
+      <c r="D66" s="100"/>
       <c r="E66" s="39" t="s">
         <v>32</v>
       </c>
@@ -2957,10 +2957,10 @@
         <f>107+35</f>
         <v>142</v>
       </c>
-      <c r="G66" s="88"/>
-      <c r="H66" s="93"/>
-      <c r="I66" s="89"/>
-      <c r="J66" s="88"/>
+      <c r="G66" s="94"/>
+      <c r="H66" s="101"/>
+      <c r="I66" s="93"/>
+      <c r="J66" s="94"/>
       <c r="L66" s="13"/>
       <c r="M66" s="14"/>
       <c r="N66" s="14"/>
@@ -2969,8 +2969,8 @@
       <c r="B67" s="38">
         <v>23</v>
       </c>
-      <c r="C67" s="92"/>
-      <c r="D67" s="92"/>
+      <c r="C67" s="100"/>
+      <c r="D67" s="100"/>
       <c r="E67" s="39" t="s">
         <v>33</v>
       </c>
@@ -2978,10 +2978,10 @@
         <f>240+1</f>
         <v>241</v>
       </c>
-      <c r="G67" s="88"/>
-      <c r="H67" s="93"/>
-      <c r="I67" s="89"/>
-      <c r="J67" s="88"/>
+      <c r="G67" s="94"/>
+      <c r="H67" s="101"/>
+      <c r="I67" s="93"/>
+      <c r="J67" s="94"/>
       <c r="L67" s="13"/>
       <c r="M67" s="14"/>
       <c r="N67" s="14"/>
@@ -2990,8 +2990,8 @@
       <c r="B68" s="38">
         <v>24</v>
       </c>
-      <c r="C68" s="92"/>
-      <c r="D68" s="92"/>
+      <c r="C68" s="100"/>
+      <c r="D68" s="100"/>
       <c r="E68" s="39" t="s">
         <v>34</v>
       </c>
@@ -2999,10 +2999,10 @@
         <f>120+4</f>
         <v>124</v>
       </c>
-      <c r="G68" s="88"/>
-      <c r="H68" s="93"/>
-      <c r="I68" s="89"/>
-      <c r="J68" s="88"/>
+      <c r="G68" s="94"/>
+      <c r="H68" s="101"/>
+      <c r="I68" s="93"/>
+      <c r="J68" s="94"/>
       <c r="L68" s="13"/>
       <c r="M68" s="14"/>
       <c r="N68" s="14"/>
@@ -3049,68 +3049,68 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="L70" s="13"/>
-      <c r="M70" s="91"/>
-      <c r="N70" s="91"/>
+      <c r="M70" s="88"/>
+      <c r="N70" s="88"/>
     </row>
     <row r="71" spans="2:17" x14ac:dyDescent="0.25">
       <c r="L71" s="13"/>
-      <c r="M71" s="91"/>
-      <c r="N71" s="91"/>
+      <c r="M71" s="88"/>
+      <c r="N71" s="88"/>
     </row>
     <row r="72" spans="2:17" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B72" s="87" t="s">
+      <c r="B72" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="C72" s="90"/>
-      <c r="D72" s="90"/>
-      <c r="E72" s="90"/>
-      <c r="F72" s="90"/>
-      <c r="G72" s="90"/>
-      <c r="H72" s="90"/>
-      <c r="I72" s="90"/>
-      <c r="J72" s="90"/>
+      <c r="C72" s="97"/>
+      <c r="D72" s="97"/>
+      <c r="E72" s="97"/>
+      <c r="F72" s="97"/>
+      <c r="G72" s="97"/>
+      <c r="H72" s="97"/>
+      <c r="I72" s="97"/>
+      <c r="J72" s="97"/>
       <c r="L72" s="13"/>
-      <c r="M72" s="91"/>
-      <c r="N72" s="91"/>
+      <c r="M72" s="88"/>
+      <c r="N72" s="88"/>
     </row>
     <row r="73" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B73" s="88" t="s">
+      <c r="B73" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="C73" s="88" t="s">
+      <c r="C73" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="D73" s="88" t="s">
+      <c r="D73" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="E73" s="88" t="s">
+      <c r="E73" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="F73" s="88" t="s">
+      <c r="F73" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="G73" s="88" t="s">
+      <c r="G73" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="H73" s="89" t="s">
+      <c r="H73" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="I73" s="88" t="s">
+      <c r="I73" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="J73" s="88"/>
+      <c r="J73" s="94"/>
       <c r="L73" s="13"/>
-      <c r="M73" s="91"/>
-      <c r="N73" s="91"/>
+      <c r="M73" s="88"/>
+      <c r="N73" s="88"/>
     </row>
     <row r="74" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B74" s="88"/>
-      <c r="C74" s="88"/>
-      <c r="D74" s="88"/>
-      <c r="E74" s="88"/>
-      <c r="F74" s="88"/>
-      <c r="G74" s="88"/>
-      <c r="H74" s="89"/>
+      <c r="B74" s="94"/>
+      <c r="C74" s="94"/>
+      <c r="D74" s="94"/>
+      <c r="E74" s="94"/>
+      <c r="F74" s="94"/>
+      <c r="G74" s="94"/>
+      <c r="H74" s="93"/>
       <c r="I74" s="5" t="s">
         <v>9</v>
       </c>
@@ -3119,8 +3119,8 @@
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="13"/>
-      <c r="M74" s="91"/>
-      <c r="N74" s="91"/>
+      <c r="M74" s="88"/>
+      <c r="N74" s="88"/>
     </row>
     <row r="75" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B75" s="5">
@@ -3140,8 +3140,8 @@
       <c r="J75" s="36"/>
       <c r="K75" s="2"/>
       <c r="L75" s="13"/>
-      <c r="M75" s="91"/>
-      <c r="N75" s="91"/>
+      <c r="M75" s="88"/>
+      <c r="N75" s="88"/>
     </row>
     <row r="76" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B76" s="5">
@@ -3161,8 +3161,8 @@
       <c r="J76" s="36"/>
       <c r="K76" s="3"/>
       <c r="L76" s="13"/>
-      <c r="M76" s="91"/>
-      <c r="N76" s="91"/>
+      <c r="M76" s="88"/>
+      <c r="N76" s="88"/>
     </row>
     <row r="77" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B77" s="5">
@@ -3181,8 +3181,8 @@
       <c r="I77" s="36"/>
       <c r="J77" s="36"/>
       <c r="L77" s="13"/>
-      <c r="M77" s="91"/>
-      <c r="N77" s="91"/>
+      <c r="M77" s="88"/>
+      <c r="N77" s="88"/>
     </row>
     <row r="78" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B78" s="5">
@@ -3203,12 +3203,12 @@
       <c r="N78" s="14"/>
     </row>
     <row r="79" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B79" s="97" t="s">
+      <c r="B79" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="C79" s="97"/>
-      <c r="D79" s="97"/>
-      <c r="E79" s="97"/>
+      <c r="C79" s="91"/>
+      <c r="D79" s="91"/>
+      <c r="E79" s="91"/>
       <c r="F79" s="48">
         <f>SUM(F75:F78)</f>
         <v>0</v>
@@ -3218,8 +3218,8 @@
       <c r="I79" s="41"/>
       <c r="J79" s="41"/>
       <c r="L79" s="13"/>
-      <c r="M79" s="91"/>
-      <c r="N79" s="91"/>
+      <c r="M79" s="88"/>
+      <c r="N79" s="88"/>
     </row>
     <row r="80" spans="2:17" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B80" s="5"/>
@@ -3243,16 +3243,16 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="L80" s="13"/>
-      <c r="M80" s="91"/>
-      <c r="N80" s="91"/>
+      <c r="M80" s="88"/>
+      <c r="N80" s="88"/>
       <c r="Q80" s="49" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="81" spans="1:48" x14ac:dyDescent="0.25">
       <c r="L81" s="13"/>
-      <c r="M81" s="91"/>
-      <c r="N81" s="91"/>
+      <c r="M81" s="88"/>
+      <c r="N81" s="88"/>
     </row>
     <row r="82" spans="1:48" x14ac:dyDescent="0.25">
       <c r="L82" s="13"/>
@@ -3280,7 +3280,7 @@
       <c r="P83" s="52"/>
       <c r="Q83" s="52"/>
       <c r="R83" s="52"/>
-      <c r="S83" s="98"/>
+      <c r="S83" s="92"/>
       <c r="T83" s="52"/>
       <c r="U83" s="52"/>
       <c r="V83" s="52"/>
@@ -3310,7 +3310,7 @@
       <c r="P84" s="54"/>
       <c r="Q84" s="54"/>
       <c r="R84" s="54"/>
-      <c r="S84" s="98"/>
+      <c r="S84" s="92"/>
       <c r="T84" s="54"/>
       <c r="U84" s="54"/>
       <c r="V84" s="54"/>
@@ -3340,7 +3340,7 @@
       <c r="P85" s="54"/>
       <c r="Q85" s="54"/>
       <c r="R85" s="54"/>
-      <c r="S85" s="98"/>
+      <c r="S85" s="92"/>
       <c r="T85" s="54"/>
       <c r="U85" s="54"/>
       <c r="V85" s="54"/>
@@ -3380,7 +3380,7 @@
       <c r="P86" s="54"/>
       <c r="Q86" s="54"/>
       <c r="R86" s="54"/>
-      <c r="S86" s="98"/>
+      <c r="S86" s="92"/>
       <c r="T86" s="54"/>
       <c r="U86" s="54"/>
       <c r="V86" s="54"/>
@@ -3420,7 +3420,7 @@
       <c r="P87" s="54"/>
       <c r="Q87" s="54"/>
       <c r="R87" s="54"/>
-      <c r="S87" s="98"/>
+      <c r="S87" s="92"/>
       <c r="T87" s="54"/>
       <c r="U87" s="54"/>
       <c r="V87" s="54"/>
@@ -3460,7 +3460,7 @@
       <c r="P88" s="54"/>
       <c r="Q88" s="54"/>
       <c r="R88" s="54"/>
-      <c r="S88" s="98"/>
+      <c r="S88" s="92"/>
       <c r="T88" s="54"/>
       <c r="U88" s="54"/>
       <c r="V88" s="54"/>
@@ -3500,7 +3500,7 @@
       <c r="P89" s="54"/>
       <c r="Q89" s="54"/>
       <c r="R89" s="54"/>
-      <c r="S89" s="98"/>
+      <c r="S89" s="92"/>
       <c r="T89" s="54"/>
       <c r="U89" s="54"/>
       <c r="V89" s="54"/>
@@ -3540,7 +3540,7 @@
       <c r="P90" s="54"/>
       <c r="Q90" s="54"/>
       <c r="R90" s="54"/>
-      <c r="S90" s="98"/>
+      <c r="S90" s="92"/>
       <c r="T90" s="54"/>
       <c r="U90" s="54"/>
       <c r="V90" s="54"/>
@@ -3562,14 +3562,14 @@
       <c r="AL90" s="54"/>
       <c r="AM90" s="54"/>
       <c r="AO90" s="59"/>
-      <c r="AP90" s="100" t="s">
+      <c r="AP90" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="AQ90" s="100"/>
-      <c r="AR90" s="100"/>
-      <c r="AS90" s="100"/>
-      <c r="AT90" s="100"/>
-      <c r="AU90" s="100"/>
+      <c r="AQ90" s="89"/>
+      <c r="AR90" s="89"/>
+      <c r="AS90" s="89"/>
+      <c r="AT90" s="89"/>
+      <c r="AU90" s="89"/>
       <c r="AV90" s="60"/>
     </row>
     <row r="91" spans="1:48" x14ac:dyDescent="0.25">
@@ -3580,7 +3580,7 @@
       <c r="P91" s="54"/>
       <c r="Q91" s="54"/>
       <c r="R91" s="54"/>
-      <c r="S91" s="98"/>
+      <c r="S91" s="92"/>
       <c r="T91" s="54"/>
       <c r="U91" s="54"/>
       <c r="V91" s="54"/>
@@ -3603,20 +3603,20 @@
       <c r="AM91" s="54"/>
       <c r="AO91" s="61"/>
       <c r="AP91" s="62"/>
-      <c r="AQ91" s="99" t="s">
+      <c r="AQ91" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="AR91" s="99"/>
-      <c r="AS91" s="99"/>
-      <c r="AT91" s="99"/>
-      <c r="AU91" s="99"/>
+      <c r="AR91" s="87"/>
+      <c r="AS91" s="87"/>
+      <c r="AT91" s="87"/>
+      <c r="AU91" s="87"/>
       <c r="AV91" s="63"/>
     </row>
     <row r="92" spans="1:48" x14ac:dyDescent="0.25">
       <c r="L92" s="13"/>
-      <c r="M92" s="91"/>
-      <c r="N92" s="91"/>
-      <c r="T92" s="101"/>
+      <c r="M92" s="88"/>
+      <c r="N92" s="88"/>
+      <c r="T92" s="90"/>
       <c r="Y92" s="64">
         <v>42753</v>
       </c>
@@ -3677,9 +3677,9 @@
     </row>
     <row r="93" spans="1:48" x14ac:dyDescent="0.25">
       <c r="L93" s="13"/>
-      <c r="M93" s="91"/>
-      <c r="N93" s="91"/>
-      <c r="T93" s="101"/>
+      <c r="M93" s="88"/>
+      <c r="N93" s="88"/>
+      <c r="T93" s="90"/>
       <c r="Y93" s="4"/>
       <c r="Z93" s="4"/>
       <c r="AA93" s="4"/>
@@ -3716,9 +3716,9 @@
     </row>
     <row r="94" spans="1:48" x14ac:dyDescent="0.25">
       <c r="L94" s="13"/>
-      <c r="M94" s="91"/>
-      <c r="N94" s="91"/>
-      <c r="T94" s="101"/>
+      <c r="M94" s="88"/>
+      <c r="N94" s="88"/>
+      <c r="T94" s="90"/>
       <c r="Y94" s="4"/>
       <c r="Z94" s="4"/>
       <c r="AA94" s="4"/>
@@ -3755,9 +3755,9 @@
     </row>
     <row r="95" spans="1:48" x14ac:dyDescent="0.25">
       <c r="L95" s="13"/>
-      <c r="M95" s="91"/>
-      <c r="N95" s="91"/>
-      <c r="T95" s="101"/>
+      <c r="M95" s="88"/>
+      <c r="N95" s="88"/>
+      <c r="T95" s="90"/>
       <c r="Y95" s="4"/>
       <c r="Z95" s="4"/>
       <c r="AA95" s="4"/>
@@ -3794,8 +3794,8 @@
     </row>
     <row r="96" spans="1:48" x14ac:dyDescent="0.25">
       <c r="L96" s="13"/>
-      <c r="M96" s="91"/>
-      <c r="N96" s="91"/>
+      <c r="M96" s="88"/>
+      <c r="N96" s="88"/>
       <c r="Y96" s="4"/>
       <c r="Z96" s="4"/>
       <c r="AA96" s="4"/>
@@ -4081,26 +4081,26 @@
     </row>
     <row r="105" spans="8:48" ht="18.75" x14ac:dyDescent="0.25">
       <c r="AO105" s="59"/>
-      <c r="AP105" s="100" t="s">
+      <c r="AP105" s="89" t="s">
         <v>70</v>
       </c>
-      <c r="AQ105" s="100"/>
-      <c r="AR105" s="100"/>
-      <c r="AS105" s="100"/>
-      <c r="AT105" s="100"/>
-      <c r="AU105" s="100"/>
+      <c r="AQ105" s="89"/>
+      <c r="AR105" s="89"/>
+      <c r="AS105" s="89"/>
+      <c r="AT105" s="89"/>
+      <c r="AU105" s="89"/>
       <c r="AV105" s="60"/>
     </row>
     <row r="106" spans="8:48" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AO106" s="61"/>
       <c r="AP106" s="62"/>
-      <c r="AQ106" s="99" t="s">
+      <c r="AQ106" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="AR106" s="99"/>
-      <c r="AS106" s="99"/>
-      <c r="AT106" s="99"/>
-      <c r="AU106" s="99"/>
+      <c r="AR106" s="87"/>
+      <c r="AS106" s="87"/>
+      <c r="AT106" s="87"/>
+      <c r="AU106" s="87"/>
       <c r="AV106" s="63"/>
     </row>
     <row r="107" spans="8:48" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4664,26 +4664,26 @@
         <v>0</v>
       </c>
       <c r="AO120" s="59"/>
-      <c r="AP120" s="100" t="s">
+      <c r="AP120" s="89" t="s">
         <v>70</v>
       </c>
-      <c r="AQ120" s="100"/>
-      <c r="AR120" s="100"/>
-      <c r="AS120" s="100"/>
-      <c r="AT120" s="100"/>
-      <c r="AU120" s="100"/>
+      <c r="AQ120" s="89"/>
+      <c r="AR120" s="89"/>
+      <c r="AS120" s="89"/>
+      <c r="AT120" s="89"/>
+      <c r="AU120" s="89"/>
       <c r="AV120" s="60"/>
     </row>
     <row r="121" spans="8:48" x14ac:dyDescent="0.25">
       <c r="AO121" s="61"/>
       <c r="AP121" s="62"/>
-      <c r="AQ121" s="99" t="s">
+      <c r="AQ121" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="AR121" s="99"/>
-      <c r="AS121" s="99"/>
-      <c r="AT121" s="99"/>
-      <c r="AU121" s="99"/>
+      <c r="AR121" s="87"/>
+      <c r="AS121" s="87"/>
+      <c r="AT121" s="87"/>
+      <c r="AU121" s="87"/>
       <c r="AV121" s="63"/>
     </row>
     <row r="122" spans="8:48" x14ac:dyDescent="0.25">
@@ -5053,14 +5053,14 @@
       <c r="AJ135" s="4"/>
       <c r="AK135" s="4"/>
       <c r="AO135" s="59"/>
-      <c r="AP135" s="100" t="s">
+      <c r="AP135" s="89" t="s">
         <v>70</v>
       </c>
-      <c r="AQ135" s="100"/>
-      <c r="AR135" s="100"/>
-      <c r="AS135" s="100"/>
-      <c r="AT135" s="100"/>
-      <c r="AU135" s="100"/>
+      <c r="AQ135" s="89"/>
+      <c r="AR135" s="89"/>
+      <c r="AS135" s="89"/>
+      <c r="AT135" s="89"/>
+      <c r="AU135" s="89"/>
       <c r="AV135" s="60"/>
     </row>
     <row r="136" spans="25:48" x14ac:dyDescent="0.25">
@@ -5118,13 +5118,13 @@
       </c>
       <c r="AO136" s="61"/>
       <c r="AP136" s="62"/>
-      <c r="AQ136" s="99" t="s">
+      <c r="AQ136" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="AR136" s="99"/>
-      <c r="AS136" s="99"/>
-      <c r="AT136" s="99"/>
-      <c r="AU136" s="99"/>
+      <c r="AR136" s="87"/>
+      <c r="AS136" s="87"/>
+      <c r="AT136" s="87"/>
+      <c r="AU136" s="87"/>
       <c r="AV136" s="63"/>
     </row>
     <row r="137" spans="25:48" x14ac:dyDescent="0.25">
@@ -5180,7 +5180,7 @@
       </c>
       <c r="AQ139" s="70">
         <f>F26</f>
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="AR139" s="69"/>
       <c r="AS139" s="69"/>
@@ -5281,7 +5281,7 @@
       </c>
       <c r="AQ146" s="75">
         <f>SUM(AQ139:AQ145)</f>
-        <v>1937</v>
+        <v>2837</v>
       </c>
       <c r="AR146" s="75">
         <f t="shared" ref="AR146:AT146" si="10">SUM(AR139:AR145)</f>
@@ -5327,20 +5327,75 @@
     </row>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="AQ136:AU136"/>
-    <mergeCell ref="M96:N96"/>
-    <mergeCell ref="AP105:AU105"/>
-    <mergeCell ref="AQ106:AU106"/>
-    <mergeCell ref="AP120:AU120"/>
-    <mergeCell ref="AQ121:AU121"/>
-    <mergeCell ref="AP135:AU135"/>
-    <mergeCell ref="AP90:AU90"/>
-    <mergeCell ref="AQ91:AU91"/>
-    <mergeCell ref="M92:N92"/>
-    <mergeCell ref="T92:T95"/>
-    <mergeCell ref="M93:N93"/>
-    <mergeCell ref="M94:N94"/>
-    <mergeCell ref="M95:N95"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B34:J34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="C43:C50"/>
+    <mergeCell ref="D43:D50"/>
+    <mergeCell ref="G43:G50"/>
+    <mergeCell ref="H43:H50"/>
+    <mergeCell ref="I43:I50"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="B40:J40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="J43:J50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="C52:C59"/>
+    <mergeCell ref="D52:D59"/>
+    <mergeCell ref="G52:G59"/>
+    <mergeCell ref="H52:H59"/>
+    <mergeCell ref="I52:I59"/>
+    <mergeCell ref="J52:J59"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="J61:J68"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="M70:N70"/>
+    <mergeCell ref="M71:N71"/>
+    <mergeCell ref="B72:J72"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="C61:C68"/>
+    <mergeCell ref="D61:D68"/>
+    <mergeCell ref="G61:G68"/>
+    <mergeCell ref="H61:H68"/>
+    <mergeCell ref="I61:I68"/>
     <mergeCell ref="M77:N77"/>
     <mergeCell ref="B79:E79"/>
     <mergeCell ref="M79:N79"/>
@@ -5359,75 +5414,20 @@
     <mergeCell ref="E73:E74"/>
     <mergeCell ref="F73:F74"/>
     <mergeCell ref="G73:G74"/>
-    <mergeCell ref="J61:J68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="M70:N70"/>
-    <mergeCell ref="M71:N71"/>
-    <mergeCell ref="B72:J72"/>
-    <mergeCell ref="M72:N72"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="C61:C68"/>
-    <mergeCell ref="D61:D68"/>
-    <mergeCell ref="G61:G68"/>
-    <mergeCell ref="H61:H68"/>
-    <mergeCell ref="I61:I68"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="C52:C59"/>
-    <mergeCell ref="D52:D59"/>
-    <mergeCell ref="G52:G59"/>
-    <mergeCell ref="H52:H59"/>
-    <mergeCell ref="I52:I59"/>
-    <mergeCell ref="J52:J59"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="C43:C50"/>
-    <mergeCell ref="D43:D50"/>
-    <mergeCell ref="G43:G50"/>
-    <mergeCell ref="H43:H50"/>
-    <mergeCell ref="I43:I50"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="B40:J40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="J43:J50"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B34:J34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="AQ136:AU136"/>
+    <mergeCell ref="M96:N96"/>
+    <mergeCell ref="AP105:AU105"/>
+    <mergeCell ref="AQ106:AU106"/>
+    <mergeCell ref="AP120:AU120"/>
+    <mergeCell ref="AQ121:AU121"/>
+    <mergeCell ref="AP135:AU135"/>
+    <mergeCell ref="AP90:AU90"/>
+    <mergeCell ref="AQ91:AU91"/>
+    <mergeCell ref="M92:N92"/>
+    <mergeCell ref="T92:T95"/>
+    <mergeCell ref="M93:N93"/>
+    <mergeCell ref="M94:N94"/>
+    <mergeCell ref="M95:N95"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/ProducsBlocked.xlsx
+++ b/ProducsBlocked.xlsx
@@ -1530,50 +1530,50 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1616,7 +1616,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$AO$135:$AV$148" spid="_x0000_s1042"/>
+                  <a14:cameraTool cellRange="$AO$135:$AV$148" spid="_x0000_s1043"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1926,7 +1926,7 @@
   <dimension ref="A2:AV148"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2001,53 +2001,53 @@
       <c r="C12" s="1"/>
     </row>
     <row r="22" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="87"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="87"/>
+      <c r="B22" s="96" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="96"/>
+      <c r="J22" s="96"/>
     </row>
     <row r="23" spans="2:14" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="88" t="s">
+      <c r="B23" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="88" t="s">
+      <c r="C23" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="88" t="s">
+      <c r="D23" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="88" t="s">
+      <c r="E23" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="F23" s="88" t="s">
+      <c r="F23" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="G23" s="88" t="s">
+      <c r="G23" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="H23" s="89" t="s">
+      <c r="H23" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="I23" s="88" t="s">
+      <c r="I23" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="J23" s="88"/>
+      <c r="J23" s="94"/>
     </row>
     <row r="24" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="88"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="89"/>
+      <c r="B24" s="94"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="93"/>
       <c r="I24" s="5" t="s">
         <v>9</v>
       </c>
@@ -2063,7 +2063,7 @@
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="9">
-        <v>900</v>
+        <v>10</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="11"/>
@@ -2076,13 +2076,13 @@
     <row r="26" spans="2:14" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="87" t="s">
+      <c r="D26" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="87"/>
+      <c r="E26" s="96"/>
       <c r="F26" s="15">
         <f>SUM(F25:F25)</f>
-        <v>900</v>
+        <v>10</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="16" t="s">
@@ -2109,59 +2109,59 @@
       <c r="N27" s="14"/>
     </row>
     <row r="28" spans="2:14" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="87" t="s">
+      <c r="B28" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="90"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="90"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="90"/>
-      <c r="J28" s="90"/>
+      <c r="C28" s="97"/>
+      <c r="D28" s="97"/>
+      <c r="E28" s="97"/>
+      <c r="F28" s="97"/>
+      <c r="G28" s="97"/>
+      <c r="H28" s="97"/>
+      <c r="I28" s="97"/>
+      <c r="J28" s="97"/>
       <c r="L28" s="13"/>
       <c r="M28" s="14"/>
       <c r="N28" s="14"/>
     </row>
     <row r="29" spans="2:14" s="2" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="88" t="s">
+      <c r="B29" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="88" t="s">
+      <c r="C29" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="88" t="s">
+      <c r="D29" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="88" t="s">
+      <c r="E29" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="88" t="s">
+      <c r="F29" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="88" t="s">
+      <c r="G29" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="H29" s="89" t="s">
+      <c r="H29" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="I29" s="88" t="s">
+      <c r="I29" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="88"/>
+      <c r="J29" s="94"/>
       <c r="L29" s="13"/>
       <c r="M29" s="14"/>
       <c r="N29" s="14"/>
     </row>
     <row r="30" spans="2:14" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="88"/>
-      <c r="C30" s="88"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="88"/>
-      <c r="G30" s="88"/>
-      <c r="H30" s="89"/>
+      <c r="B30" s="94"/>
+      <c r="C30" s="94"/>
+      <c r="D30" s="94"/>
+      <c r="E30" s="94"/>
+      <c r="F30" s="94"/>
+      <c r="G30" s="94"/>
+      <c r="H30" s="93"/>
       <c r="I30" s="5" t="s">
         <v>9</v>
       </c>
@@ -2203,10 +2203,10 @@
     <row r="32" spans="2:14" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="87" t="s">
+      <c r="D32" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="87"/>
+      <c r="E32" s="96"/>
       <c r="F32" s="15">
         <f>SUM(F31:F31)</f>
         <v>0</v>
@@ -2242,59 +2242,59 @@
       <c r="N33" s="14"/>
     </row>
     <row r="34" spans="1:14" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="87" t="s">
+      <c r="B34" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="90"/>
-      <c r="D34" s="90"/>
-      <c r="E34" s="90"/>
-      <c r="F34" s="90"/>
-      <c r="G34" s="90"/>
-      <c r="H34" s="90"/>
-      <c r="I34" s="90"/>
-      <c r="J34" s="90"/>
+      <c r="C34" s="97"/>
+      <c r="D34" s="97"/>
+      <c r="E34" s="97"/>
+      <c r="F34" s="97"/>
+      <c r="G34" s="97"/>
+      <c r="H34" s="97"/>
+      <c r="I34" s="97"/>
+      <c r="J34" s="97"/>
       <c r="L34" s="13"/>
       <c r="M34" s="14"/>
       <c r="N34" s="14"/>
     </row>
     <row r="35" spans="1:14" s="2" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="88" t="s">
+      <c r="B35" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="88" t="s">
+      <c r="C35" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="88" t="s">
+      <c r="D35" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="88" t="s">
+      <c r="E35" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="F35" s="88" t="s">
+      <c r="F35" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="G35" s="88" t="s">
+      <c r="G35" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="H35" s="89" t="s">
+      <c r="H35" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="I35" s="88" t="s">
+      <c r="I35" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="J35" s="88"/>
+      <c r="J35" s="94"/>
       <c r="L35" s="13"/>
       <c r="M35" s="14"/>
       <c r="N35" s="14"/>
     </row>
     <row r="36" spans="1:14" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="88"/>
-      <c r="C36" s="88"/>
-      <c r="D36" s="88"/>
-      <c r="E36" s="88"/>
-      <c r="F36" s="88"/>
-      <c r="G36" s="88"/>
-      <c r="H36" s="89"/>
+      <c r="B36" s="94"/>
+      <c r="C36" s="94"/>
+      <c r="D36" s="94"/>
+      <c r="E36" s="94"/>
+      <c r="F36" s="94"/>
+      <c r="G36" s="94"/>
+      <c r="H36" s="93"/>
       <c r="I36" s="5" t="s">
         <v>9</v>
       </c>
@@ -2324,10 +2324,10 @@
     <row r="38" spans="1:14" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="87" t="s">
+      <c r="D38" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="E38" s="87"/>
+      <c r="E38" s="96"/>
       <c r="F38" s="15">
         <f>SUM(F37:F37)</f>
         <v>0</v>
@@ -2345,68 +2345,68 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="L38" s="13"/>
-      <c r="M38" s="91"/>
-      <c r="N38" s="91"/>
+      <c r="M38" s="88"/>
+      <c r="N38" s="88"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L39" s="13"/>
-      <c r="M39" s="91"/>
-      <c r="N39" s="91"/>
+      <c r="M39" s="88"/>
+      <c r="N39" s="88"/>
     </row>
     <row r="40" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B40" s="87" t="s">
+      <c r="B40" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="90"/>
-      <c r="D40" s="90"/>
-      <c r="E40" s="90"/>
-      <c r="F40" s="90"/>
-      <c r="G40" s="90"/>
-      <c r="H40" s="90"/>
-      <c r="I40" s="90"/>
-      <c r="J40" s="90"/>
+      <c r="C40" s="97"/>
+      <c r="D40" s="97"/>
+      <c r="E40" s="97"/>
+      <c r="F40" s="97"/>
+      <c r="G40" s="97"/>
+      <c r="H40" s="97"/>
+      <c r="I40" s="97"/>
+      <c r="J40" s="97"/>
       <c r="L40" s="13"/>
-      <c r="M40" s="91"/>
-      <c r="N40" s="91"/>
+      <c r="M40" s="88"/>
+      <c r="N40" s="88"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B41" s="88" t="s">
+      <c r="B41" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="88" t="s">
+      <c r="C41" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="D41" s="88" t="s">
+      <c r="D41" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="E41" s="88" t="s">
+      <c r="E41" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="F41" s="88" t="s">
+      <c r="F41" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="G41" s="88" t="s">
+      <c r="G41" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="H41" s="89" t="s">
+      <c r="H41" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="I41" s="88" t="s">
+      <c r="I41" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="J41" s="88"/>
+      <c r="J41" s="94"/>
       <c r="L41" s="13"/>
-      <c r="M41" s="91"/>
-      <c r="N41" s="91"/>
+      <c r="M41" s="88"/>
+      <c r="N41" s="88"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B42" s="88"/>
-      <c r="C42" s="88"/>
-      <c r="D42" s="88"/>
-      <c r="E42" s="88"/>
-      <c r="F42" s="88"/>
-      <c r="G42" s="88"/>
-      <c r="H42" s="89"/>
+      <c r="B42" s="94"/>
+      <c r="C42" s="94"/>
+      <c r="D42" s="94"/>
+      <c r="E42" s="94"/>
+      <c r="F42" s="94"/>
+      <c r="G42" s="94"/>
+      <c r="H42" s="93"/>
       <c r="I42" s="5" t="s">
         <v>9</v>
       </c>
@@ -2414,8 +2414,8 @@
         <v>10</v>
       </c>
       <c r="L42" s="13"/>
-      <c r="M42" s="91"/>
-      <c r="N42" s="91"/>
+      <c r="M42" s="88"/>
+      <c r="N42" s="88"/>
     </row>
     <row r="43" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="37">
@@ -2425,10 +2425,10 @@
       <c r="B43" s="38">
         <v>1</v>
       </c>
-      <c r="C43" s="92" t="s">
+      <c r="C43" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="92" t="s">
+      <c r="D43" s="100" t="s">
         <v>24</v>
       </c>
       <c r="E43" s="39" t="s">
@@ -2437,16 +2437,16 @@
       <c r="F43" s="38">
         <v>24</v>
       </c>
-      <c r="G43" s="88" t="s">
+      <c r="G43" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="H43" s="93" t="s">
+      <c r="H43" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="I43" s="89" t="s">
+      <c r="I43" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="J43" s="88"/>
+      <c r="J43" s="94"/>
       <c r="L43" s="13"/>
       <c r="M43" s="14"/>
       <c r="N43" s="14"/>
@@ -2459,18 +2459,18 @@
       <c r="B44" s="38">
         <v>2</v>
       </c>
-      <c r="C44" s="92"/>
-      <c r="D44" s="92"/>
+      <c r="C44" s="100"/>
+      <c r="D44" s="100"/>
       <c r="E44" s="39" t="s">
         <v>28</v>
       </c>
       <c r="F44" s="38">
         <v>24</v>
       </c>
-      <c r="G44" s="88"/>
-      <c r="H44" s="93"/>
-      <c r="I44" s="88"/>
-      <c r="J44" s="88"/>
+      <c r="G44" s="94"/>
+      <c r="H44" s="101"/>
+      <c r="I44" s="94"/>
+      <c r="J44" s="94"/>
       <c r="L44" s="13"/>
       <c r="M44" s="14"/>
       <c r="N44" s="14"/>
@@ -2483,18 +2483,18 @@
       <c r="B45" s="38">
         <v>3</v>
       </c>
-      <c r="C45" s="92"/>
-      <c r="D45" s="92"/>
+      <c r="C45" s="100"/>
+      <c r="D45" s="100"/>
       <c r="E45" s="39" t="s">
         <v>29</v>
       </c>
       <c r="F45" s="38">
         <v>73</v>
       </c>
-      <c r="G45" s="88"/>
-      <c r="H45" s="93"/>
-      <c r="I45" s="88"/>
-      <c r="J45" s="88"/>
+      <c r="G45" s="94"/>
+      <c r="H45" s="101"/>
+      <c r="I45" s="94"/>
+      <c r="J45" s="94"/>
       <c r="L45" s="13"/>
       <c r="M45" s="14"/>
       <c r="N45" s="14"/>
@@ -2507,18 +2507,18 @@
       <c r="B46" s="38">
         <v>4</v>
       </c>
-      <c r="C46" s="92"/>
-      <c r="D46" s="92"/>
+      <c r="C46" s="100"/>
+      <c r="D46" s="100"/>
       <c r="E46" s="39" t="s">
         <v>30</v>
       </c>
       <c r="F46" s="38">
         <v>73</v>
       </c>
-      <c r="G46" s="88"/>
-      <c r="H46" s="93"/>
-      <c r="I46" s="88"/>
-      <c r="J46" s="88"/>
+      <c r="G46" s="94"/>
+      <c r="H46" s="101"/>
+      <c r="I46" s="94"/>
+      <c r="J46" s="94"/>
       <c r="L46" s="13"/>
       <c r="M46" s="14"/>
       <c r="N46" s="14"/>
@@ -2531,18 +2531,18 @@
       <c r="B47" s="38">
         <v>5</v>
       </c>
-      <c r="C47" s="92"/>
-      <c r="D47" s="92"/>
+      <c r="C47" s="100"/>
+      <c r="D47" s="100"/>
       <c r="E47" s="39" t="s">
         <v>31</v>
       </c>
       <c r="F47" s="38">
         <v>11</v>
       </c>
-      <c r="G47" s="88"/>
-      <c r="H47" s="93"/>
-      <c r="I47" s="88"/>
-      <c r="J47" s="88"/>
+      <c r="G47" s="94"/>
+      <c r="H47" s="101"/>
+      <c r="I47" s="94"/>
+      <c r="J47" s="94"/>
       <c r="L47" s="13"/>
       <c r="M47" s="14"/>
       <c r="N47" s="14"/>
@@ -2555,18 +2555,18 @@
       <c r="B48" s="38">
         <v>6</v>
       </c>
-      <c r="C48" s="92"/>
-      <c r="D48" s="92"/>
+      <c r="C48" s="100"/>
+      <c r="D48" s="100"/>
       <c r="E48" s="39" t="s">
         <v>32</v>
       </c>
       <c r="F48" s="38">
         <v>11</v>
       </c>
-      <c r="G48" s="88"/>
-      <c r="H48" s="93"/>
-      <c r="I48" s="88"/>
-      <c r="J48" s="88"/>
+      <c r="G48" s="94"/>
+      <c r="H48" s="101"/>
+      <c r="I48" s="94"/>
+      <c r="J48" s="94"/>
       <c r="L48" s="13"/>
       <c r="M48" s="14"/>
       <c r="N48" s="14"/>
@@ -2579,18 +2579,18 @@
       <c r="B49" s="38">
         <v>7</v>
       </c>
-      <c r="C49" s="92"/>
-      <c r="D49" s="92"/>
+      <c r="C49" s="100"/>
+      <c r="D49" s="100"/>
       <c r="E49" s="39" t="s">
         <v>33</v>
       </c>
       <c r="F49" s="38">
         <v>5</v>
       </c>
-      <c r="G49" s="88"/>
-      <c r="H49" s="93"/>
-      <c r="I49" s="88"/>
-      <c r="J49" s="88"/>
+      <c r="G49" s="94"/>
+      <c r="H49" s="101"/>
+      <c r="I49" s="94"/>
+      <c r="J49" s="94"/>
       <c r="L49" s="13"/>
       <c r="M49" s="14"/>
       <c r="N49" s="14"/>
@@ -2603,29 +2603,29 @@
       <c r="B50" s="38">
         <v>8</v>
       </c>
-      <c r="C50" s="92"/>
-      <c r="D50" s="92"/>
+      <c r="C50" s="100"/>
+      <c r="D50" s="100"/>
       <c r="E50" s="39" t="s">
         <v>34</v>
       </c>
       <c r="F50" s="38">
         <v>5</v>
       </c>
-      <c r="G50" s="88"/>
-      <c r="H50" s="93"/>
-      <c r="I50" s="88"/>
-      <c r="J50" s="88"/>
+      <c r="G50" s="94"/>
+      <c r="H50" s="101"/>
+      <c r="I50" s="94"/>
+      <c r="J50" s="94"/>
       <c r="L50" s="13"/>
       <c r="M50" s="14"/>
       <c r="N50" s="14"/>
     </row>
     <row r="51" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="94" t="s">
+      <c r="B51" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="C51" s="94"/>
-      <c r="D51" s="94"/>
-      <c r="E51" s="94"/>
+      <c r="C51" s="98"/>
+      <c r="D51" s="98"/>
+      <c r="E51" s="98"/>
       <c r="F51" s="40">
         <f>SUM(F43:F50)</f>
         <v>226</v>
@@ -2643,10 +2643,10 @@
       <c r="B52" s="38">
         <v>9</v>
       </c>
-      <c r="C52" s="92" t="s">
+      <c r="C52" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="D52" s="92" t="s">
+      <c r="D52" s="100" t="s">
         <v>36</v>
       </c>
       <c r="E52" s="39" t="s">
@@ -2655,16 +2655,16 @@
       <c r="F52" s="43">
         <v>0</v>
       </c>
-      <c r="G52" s="88" t="s">
+      <c r="G52" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="H52" s="93" t="s">
+      <c r="H52" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="I52" s="89" t="s">
+      <c r="I52" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="J52" s="88"/>
+      <c r="J52" s="94"/>
       <c r="L52" s="13"/>
       <c r="M52" s="14"/>
       <c r="N52" s="14"/>
@@ -2673,18 +2673,18 @@
       <c r="B53" s="38">
         <v>10</v>
       </c>
-      <c r="C53" s="92"/>
-      <c r="D53" s="92"/>
+      <c r="C53" s="100"/>
+      <c r="D53" s="100"/>
       <c r="E53" s="39" t="s">
         <v>28</v>
       </c>
       <c r="F53" s="44">
         <v>6</v>
       </c>
-      <c r="G53" s="88"/>
-      <c r="H53" s="93"/>
-      <c r="I53" s="88"/>
-      <c r="J53" s="88"/>
+      <c r="G53" s="94"/>
+      <c r="H53" s="101"/>
+      <c r="I53" s="94"/>
+      <c r="J53" s="94"/>
       <c r="L53" s="13"/>
       <c r="M53" s="14"/>
       <c r="N53" s="14"/>
@@ -2693,18 +2693,18 @@
       <c r="B54" s="38">
         <v>11</v>
       </c>
-      <c r="C54" s="92"/>
-      <c r="D54" s="92"/>
+      <c r="C54" s="100"/>
+      <c r="D54" s="100"/>
       <c r="E54" s="39" t="s">
         <v>29</v>
       </c>
       <c r="F54" s="43">
         <v>0</v>
       </c>
-      <c r="G54" s="88"/>
-      <c r="H54" s="93"/>
-      <c r="I54" s="88"/>
-      <c r="J54" s="88"/>
+      <c r="G54" s="94"/>
+      <c r="H54" s="101"/>
+      <c r="I54" s="94"/>
+      <c r="J54" s="94"/>
       <c r="L54" s="13"/>
       <c r="M54" s="14"/>
       <c r="N54" s="14"/>
@@ -2713,18 +2713,18 @@
       <c r="B55" s="38">
         <v>12</v>
       </c>
-      <c r="C55" s="92"/>
-      <c r="D55" s="92"/>
+      <c r="C55" s="100"/>
+      <c r="D55" s="100"/>
       <c r="E55" s="39" t="s">
         <v>30</v>
       </c>
       <c r="F55" s="43">
         <v>0</v>
       </c>
-      <c r="G55" s="88"/>
-      <c r="H55" s="93"/>
-      <c r="I55" s="88"/>
-      <c r="J55" s="88"/>
+      <c r="G55" s="94"/>
+      <c r="H55" s="101"/>
+      <c r="I55" s="94"/>
+      <c r="J55" s="94"/>
       <c r="L55" s="13"/>
       <c r="M55" s="14"/>
       <c r="N55" s="14"/>
@@ -2733,18 +2733,18 @@
       <c r="B56" s="38">
         <v>13</v>
       </c>
-      <c r="C56" s="92"/>
-      <c r="D56" s="92"/>
+      <c r="C56" s="100"/>
+      <c r="D56" s="100"/>
       <c r="E56" s="39" t="s">
         <v>31</v>
       </c>
       <c r="F56" s="43">
         <v>0</v>
       </c>
-      <c r="G56" s="88"/>
-      <c r="H56" s="93"/>
-      <c r="I56" s="88"/>
-      <c r="J56" s="88"/>
+      <c r="G56" s="94"/>
+      <c r="H56" s="101"/>
+      <c r="I56" s="94"/>
+      <c r="J56" s="94"/>
       <c r="L56" s="13"/>
       <c r="M56" s="14"/>
       <c r="N56" s="14"/>
@@ -2753,18 +2753,18 @@
       <c r="B57" s="38">
         <v>14</v>
       </c>
-      <c r="C57" s="92"/>
-      <c r="D57" s="92"/>
+      <c r="C57" s="100"/>
+      <c r="D57" s="100"/>
       <c r="E57" s="39" t="s">
         <v>32</v>
       </c>
       <c r="F57" s="43">
         <v>0</v>
       </c>
-      <c r="G57" s="88"/>
-      <c r="H57" s="93"/>
-      <c r="I57" s="88"/>
-      <c r="J57" s="88"/>
+      <c r="G57" s="94"/>
+      <c r="H57" s="101"/>
+      <c r="I57" s="94"/>
+      <c r="J57" s="94"/>
       <c r="L57" s="13"/>
       <c r="M57" s="14"/>
       <c r="N57" s="14"/>
@@ -2773,18 +2773,18 @@
       <c r="B58" s="38">
         <v>15</v>
       </c>
-      <c r="C58" s="92"/>
-      <c r="D58" s="92"/>
+      <c r="C58" s="100"/>
+      <c r="D58" s="100"/>
       <c r="E58" s="39" t="s">
         <v>33</v>
       </c>
       <c r="F58" s="43">
         <v>0</v>
       </c>
-      <c r="G58" s="88"/>
-      <c r="H58" s="93"/>
-      <c r="I58" s="88"/>
-      <c r="J58" s="88"/>
+      <c r="G58" s="94"/>
+      <c r="H58" s="101"/>
+      <c r="I58" s="94"/>
+      <c r="J58" s="94"/>
       <c r="L58" s="13"/>
       <c r="M58" s="14"/>
       <c r="N58" s="14"/>
@@ -2793,29 +2793,29 @@
       <c r="B59" s="38">
         <v>16</v>
       </c>
-      <c r="C59" s="92"/>
-      <c r="D59" s="92"/>
+      <c r="C59" s="100"/>
+      <c r="D59" s="100"/>
       <c r="E59" s="39" t="s">
         <v>34</v>
       </c>
       <c r="F59" s="43">
         <v>0</v>
       </c>
-      <c r="G59" s="88"/>
-      <c r="H59" s="93"/>
-      <c r="I59" s="88"/>
-      <c r="J59" s="88"/>
+      <c r="G59" s="94"/>
+      <c r="H59" s="101"/>
+      <c r="I59" s="94"/>
+      <c r="J59" s="94"/>
       <c r="L59" s="13"/>
       <c r="M59" s="14"/>
       <c r="N59" s="14"/>
     </row>
     <row r="60" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="94" t="s">
+      <c r="B60" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="C60" s="94"/>
-      <c r="D60" s="94"/>
-      <c r="E60" s="94"/>
+      <c r="C60" s="98"/>
+      <c r="D60" s="98"/>
+      <c r="E60" s="98"/>
       <c r="F60" s="40">
         <f>SUM(F52:F59)</f>
         <v>6</v>
@@ -2833,10 +2833,10 @@
       <c r="B61" s="38">
         <v>17</v>
       </c>
-      <c r="C61" s="96" t="s">
+      <c r="C61" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="92" t="s">
+      <c r="D61" s="100" t="s">
         <v>39</v>
       </c>
       <c r="E61" s="39" t="s">
@@ -2846,16 +2846,16 @@
         <f>240+12</f>
         <v>252</v>
       </c>
-      <c r="G61" s="88" t="s">
+      <c r="G61" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="H61" s="93" t="s">
+      <c r="H61" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="I61" s="89" t="s">
+      <c r="I61" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="J61" s="88"/>
+      <c r="J61" s="94"/>
       <c r="L61" s="13"/>
       <c r="M61" s="14"/>
       <c r="N61" s="14"/>
@@ -2864,8 +2864,8 @@
       <c r="B62" s="38">
         <v>18</v>
       </c>
-      <c r="C62" s="96"/>
-      <c r="D62" s="92"/>
+      <c r="C62" s="99"/>
+      <c r="D62" s="100"/>
       <c r="E62" s="39" t="s">
         <v>28</v>
       </c>
@@ -2873,10 +2873,10 @@
         <f>100+42</f>
         <v>142</v>
       </c>
-      <c r="G62" s="88"/>
-      <c r="H62" s="93"/>
-      <c r="I62" s="89"/>
-      <c r="J62" s="88"/>
+      <c r="G62" s="94"/>
+      <c r="H62" s="101"/>
+      <c r="I62" s="93"/>
+      <c r="J62" s="94"/>
       <c r="L62" s="13"/>
       <c r="M62" s="14"/>
       <c r="N62" s="14"/>
@@ -2885,8 +2885,8 @@
       <c r="B63" s="38">
         <v>19</v>
       </c>
-      <c r="C63" s="96"/>
-      <c r="D63" s="92"/>
+      <c r="C63" s="99"/>
+      <c r="D63" s="100"/>
       <c r="E63" s="39" t="s">
         <v>29</v>
       </c>
@@ -2894,10 +2894,10 @@
         <f>341+1</f>
         <v>342</v>
       </c>
-      <c r="G63" s="88"/>
-      <c r="H63" s="93"/>
-      <c r="I63" s="89"/>
-      <c r="J63" s="88"/>
+      <c r="G63" s="94"/>
+      <c r="H63" s="101"/>
+      <c r="I63" s="93"/>
+      <c r="J63" s="94"/>
       <c r="L63" s="13"/>
       <c r="M63" s="14"/>
       <c r="N63" s="14"/>
@@ -2906,8 +2906,8 @@
       <c r="B64" s="38">
         <v>20</v>
       </c>
-      <c r="C64" s="96"/>
-      <c r="D64" s="92"/>
+      <c r="C64" s="99"/>
+      <c r="D64" s="100"/>
       <c r="E64" s="39" t="s">
         <v>30</v>
       </c>
@@ -2915,10 +2915,10 @@
         <f>0+26</f>
         <v>26</v>
       </c>
-      <c r="G64" s="88"/>
-      <c r="H64" s="93"/>
-      <c r="I64" s="89"/>
-      <c r="J64" s="88"/>
+      <c r="G64" s="94"/>
+      <c r="H64" s="101"/>
+      <c r="I64" s="93"/>
+      <c r="J64" s="94"/>
       <c r="L64" s="13"/>
       <c r="M64" s="14"/>
       <c r="N64" s="14"/>
@@ -2927,8 +2927,8 @@
       <c r="B65" s="38">
         <v>21</v>
       </c>
-      <c r="C65" s="96"/>
-      <c r="D65" s="92"/>
+      <c r="C65" s="99"/>
+      <c r="D65" s="100"/>
       <c r="E65" s="39" t="s">
         <v>31</v>
       </c>
@@ -2936,10 +2936,10 @@
         <f>131+5</f>
         <v>136</v>
       </c>
-      <c r="G65" s="88"/>
-      <c r="H65" s="93"/>
-      <c r="I65" s="89"/>
-      <c r="J65" s="88"/>
+      <c r="G65" s="94"/>
+      <c r="H65" s="101"/>
+      <c r="I65" s="93"/>
+      <c r="J65" s="94"/>
       <c r="L65" s="13"/>
       <c r="M65" s="14"/>
       <c r="N65" s="14"/>
@@ -2948,8 +2948,8 @@
       <c r="B66" s="38">
         <v>22</v>
       </c>
-      <c r="C66" s="92"/>
-      <c r="D66" s="92"/>
+      <c r="C66" s="100"/>
+      <c r="D66" s="100"/>
       <c r="E66" s="39" t="s">
         <v>32</v>
       </c>
@@ -2957,10 +2957,10 @@
         <f>107+35</f>
         <v>142</v>
       </c>
-      <c r="G66" s="88"/>
-      <c r="H66" s="93"/>
-      <c r="I66" s="89"/>
-      <c r="J66" s="88"/>
+      <c r="G66" s="94"/>
+      <c r="H66" s="101"/>
+      <c r="I66" s="93"/>
+      <c r="J66" s="94"/>
       <c r="L66" s="13"/>
       <c r="M66" s="14"/>
       <c r="N66" s="14"/>
@@ -2969,8 +2969,8 @@
       <c r="B67" s="38">
         <v>23</v>
       </c>
-      <c r="C67" s="92"/>
-      <c r="D67" s="92"/>
+      <c r="C67" s="100"/>
+      <c r="D67" s="100"/>
       <c r="E67" s="39" t="s">
         <v>33</v>
       </c>
@@ -2978,10 +2978,10 @@
         <f>240+1</f>
         <v>241</v>
       </c>
-      <c r="G67" s="88"/>
-      <c r="H67" s="93"/>
-      <c r="I67" s="89"/>
-      <c r="J67" s="88"/>
+      <c r="G67" s="94"/>
+      <c r="H67" s="101"/>
+      <c r="I67" s="93"/>
+      <c r="J67" s="94"/>
       <c r="L67" s="13"/>
       <c r="M67" s="14"/>
       <c r="N67" s="14"/>
@@ -2990,8 +2990,8 @@
       <c r="B68" s="38">
         <v>24</v>
       </c>
-      <c r="C68" s="92"/>
-      <c r="D68" s="92"/>
+      <c r="C68" s="100"/>
+      <c r="D68" s="100"/>
       <c r="E68" s="39" t="s">
         <v>34</v>
       </c>
@@ -2999,10 +2999,10 @@
         <f>120+4</f>
         <v>124</v>
       </c>
-      <c r="G68" s="88"/>
-      <c r="H68" s="93"/>
-      <c r="I68" s="89"/>
-      <c r="J68" s="88"/>
+      <c r="G68" s="94"/>
+      <c r="H68" s="101"/>
+      <c r="I68" s="93"/>
+      <c r="J68" s="94"/>
       <c r="L68" s="13"/>
       <c r="M68" s="14"/>
       <c r="N68" s="14"/>
@@ -3049,68 +3049,68 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="L70" s="13"/>
-      <c r="M70" s="91"/>
-      <c r="N70" s="91"/>
+      <c r="M70" s="88"/>
+      <c r="N70" s="88"/>
     </row>
     <row r="71" spans="2:17" x14ac:dyDescent="0.25">
       <c r="L71" s="13"/>
-      <c r="M71" s="91"/>
-      <c r="N71" s="91"/>
+      <c r="M71" s="88"/>
+      <c r="N71" s="88"/>
     </row>
     <row r="72" spans="2:17" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B72" s="87" t="s">
+      <c r="B72" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="C72" s="90"/>
-      <c r="D72" s="90"/>
-      <c r="E72" s="90"/>
-      <c r="F72" s="90"/>
-      <c r="G72" s="90"/>
-      <c r="H72" s="90"/>
-      <c r="I72" s="90"/>
-      <c r="J72" s="90"/>
+      <c r="C72" s="97"/>
+      <c r="D72" s="97"/>
+      <c r="E72" s="97"/>
+      <c r="F72" s="97"/>
+      <c r="G72" s="97"/>
+      <c r="H72" s="97"/>
+      <c r="I72" s="97"/>
+      <c r="J72" s="97"/>
       <c r="L72" s="13"/>
-      <c r="M72" s="91"/>
-      <c r="N72" s="91"/>
+      <c r="M72" s="88"/>
+      <c r="N72" s="88"/>
     </row>
     <row r="73" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B73" s="88" t="s">
+      <c r="B73" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="C73" s="88" t="s">
+      <c r="C73" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="D73" s="88" t="s">
+      <c r="D73" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="E73" s="88" t="s">
+      <c r="E73" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="F73" s="88" t="s">
+      <c r="F73" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="G73" s="88" t="s">
+      <c r="G73" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="H73" s="89" t="s">
+      <c r="H73" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="I73" s="88" t="s">
+      <c r="I73" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="J73" s="88"/>
+      <c r="J73" s="94"/>
       <c r="L73" s="13"/>
-      <c r="M73" s="91"/>
-      <c r="N73" s="91"/>
+      <c r="M73" s="88"/>
+      <c r="N73" s="88"/>
     </row>
     <row r="74" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B74" s="88"/>
-      <c r="C74" s="88"/>
-      <c r="D74" s="88"/>
-      <c r="E74" s="88"/>
-      <c r="F74" s="88"/>
-      <c r="G74" s="88"/>
-      <c r="H74" s="89"/>
+      <c r="B74" s="94"/>
+      <c r="C74" s="94"/>
+      <c r="D74" s="94"/>
+      <c r="E74" s="94"/>
+      <c r="F74" s="94"/>
+      <c r="G74" s="94"/>
+      <c r="H74" s="93"/>
       <c r="I74" s="5" t="s">
         <v>9</v>
       </c>
@@ -3119,8 +3119,8 @@
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="13"/>
-      <c r="M74" s="91"/>
-      <c r="N74" s="91"/>
+      <c r="M74" s="88"/>
+      <c r="N74" s="88"/>
     </row>
     <row r="75" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B75" s="5">
@@ -3140,8 +3140,8 @@
       <c r="J75" s="36"/>
       <c r="K75" s="2"/>
       <c r="L75" s="13"/>
-      <c r="M75" s="91"/>
-      <c r="N75" s="91"/>
+      <c r="M75" s="88"/>
+      <c r="N75" s="88"/>
     </row>
     <row r="76" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B76" s="5">
@@ -3161,8 +3161,8 @@
       <c r="J76" s="36"/>
       <c r="K76" s="3"/>
       <c r="L76" s="13"/>
-      <c r="M76" s="91"/>
-      <c r="N76" s="91"/>
+      <c r="M76" s="88"/>
+      <c r="N76" s="88"/>
     </row>
     <row r="77" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B77" s="5">
@@ -3181,8 +3181,8 @@
       <c r="I77" s="36"/>
       <c r="J77" s="36"/>
       <c r="L77" s="13"/>
-      <c r="M77" s="91"/>
-      <c r="N77" s="91"/>
+      <c r="M77" s="88"/>
+      <c r="N77" s="88"/>
     </row>
     <row r="78" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B78" s="5">
@@ -3203,12 +3203,12 @@
       <c r="N78" s="14"/>
     </row>
     <row r="79" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B79" s="97" t="s">
+      <c r="B79" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="C79" s="97"/>
-      <c r="D79" s="97"/>
-      <c r="E79" s="97"/>
+      <c r="C79" s="91"/>
+      <c r="D79" s="91"/>
+      <c r="E79" s="91"/>
       <c r="F79" s="48">
         <f>SUM(F75:F78)</f>
         <v>0</v>
@@ -3218,8 +3218,8 @@
       <c r="I79" s="41"/>
       <c r="J79" s="41"/>
       <c r="L79" s="13"/>
-      <c r="M79" s="91"/>
-      <c r="N79" s="91"/>
+      <c r="M79" s="88"/>
+      <c r="N79" s="88"/>
     </row>
     <row r="80" spans="2:17" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B80" s="5"/>
@@ -3243,16 +3243,16 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="L80" s="13"/>
-      <c r="M80" s="91"/>
-      <c r="N80" s="91"/>
+      <c r="M80" s="88"/>
+      <c r="N80" s="88"/>
       <c r="Q80" s="49" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="81" spans="1:48" x14ac:dyDescent="0.25">
       <c r="L81" s="13"/>
-      <c r="M81" s="91"/>
-      <c r="N81" s="91"/>
+      <c r="M81" s="88"/>
+      <c r="N81" s="88"/>
     </row>
     <row r="82" spans="1:48" x14ac:dyDescent="0.25">
       <c r="L82" s="13"/>
@@ -3280,7 +3280,7 @@
       <c r="P83" s="52"/>
       <c r="Q83" s="52"/>
       <c r="R83" s="52"/>
-      <c r="S83" s="98"/>
+      <c r="S83" s="92"/>
       <c r="T83" s="52"/>
       <c r="U83" s="52"/>
       <c r="V83" s="52"/>
@@ -3310,7 +3310,7 @@
       <c r="P84" s="54"/>
       <c r="Q84" s="54"/>
       <c r="R84" s="54"/>
-      <c r="S84" s="98"/>
+      <c r="S84" s="92"/>
       <c r="T84" s="54"/>
       <c r="U84" s="54"/>
       <c r="V84" s="54"/>
@@ -3340,7 +3340,7 @@
       <c r="P85" s="54"/>
       <c r="Q85" s="54"/>
       <c r="R85" s="54"/>
-      <c r="S85" s="98"/>
+      <c r="S85" s="92"/>
       <c r="T85" s="54"/>
       <c r="U85" s="54"/>
       <c r="V85" s="54"/>
@@ -3380,7 +3380,7 @@
       <c r="P86" s="54"/>
       <c r="Q86" s="54"/>
       <c r="R86" s="54"/>
-      <c r="S86" s="98"/>
+      <c r="S86" s="92"/>
       <c r="T86" s="54"/>
       <c r="U86" s="54"/>
       <c r="V86" s="54"/>
@@ -3420,7 +3420,7 @@
       <c r="P87" s="54"/>
       <c r="Q87" s="54"/>
       <c r="R87" s="54"/>
-      <c r="S87" s="98"/>
+      <c r="S87" s="92"/>
       <c r="T87" s="54"/>
       <c r="U87" s="54"/>
       <c r="V87" s="54"/>
@@ -3460,7 +3460,7 @@
       <c r="P88" s="54"/>
       <c r="Q88" s="54"/>
       <c r="R88" s="54"/>
-      <c r="S88" s="98"/>
+      <c r="S88" s="92"/>
       <c r="T88" s="54"/>
       <c r="U88" s="54"/>
       <c r="V88" s="54"/>
@@ -3500,7 +3500,7 @@
       <c r="P89" s="54"/>
       <c r="Q89" s="54"/>
       <c r="R89" s="54"/>
-      <c r="S89" s="98"/>
+      <c r="S89" s="92"/>
       <c r="T89" s="54"/>
       <c r="U89" s="54"/>
       <c r="V89" s="54"/>
@@ -3540,7 +3540,7 @@
       <c r="P90" s="54"/>
       <c r="Q90" s="54"/>
       <c r="R90" s="54"/>
-      <c r="S90" s="98"/>
+      <c r="S90" s="92"/>
       <c r="T90" s="54"/>
       <c r="U90" s="54"/>
       <c r="V90" s="54"/>
@@ -3562,14 +3562,14 @@
       <c r="AL90" s="54"/>
       <c r="AM90" s="54"/>
       <c r="AO90" s="59"/>
-      <c r="AP90" s="100" t="s">
+      <c r="AP90" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="AQ90" s="100"/>
-      <c r="AR90" s="100"/>
-      <c r="AS90" s="100"/>
-      <c r="AT90" s="100"/>
-      <c r="AU90" s="100"/>
+      <c r="AQ90" s="89"/>
+      <c r="AR90" s="89"/>
+      <c r="AS90" s="89"/>
+      <c r="AT90" s="89"/>
+      <c r="AU90" s="89"/>
       <c r="AV90" s="60"/>
     </row>
     <row r="91" spans="1:48" x14ac:dyDescent="0.25">
@@ -3580,7 +3580,7 @@
       <c r="P91" s="54"/>
       <c r="Q91" s="54"/>
       <c r="R91" s="54"/>
-      <c r="S91" s="98"/>
+      <c r="S91" s="92"/>
       <c r="T91" s="54"/>
       <c r="U91" s="54"/>
       <c r="V91" s="54"/>
@@ -3603,20 +3603,20 @@
       <c r="AM91" s="54"/>
       <c r="AO91" s="61"/>
       <c r="AP91" s="62"/>
-      <c r="AQ91" s="99" t="s">
+      <c r="AQ91" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="AR91" s="99"/>
-      <c r="AS91" s="99"/>
-      <c r="AT91" s="99"/>
-      <c r="AU91" s="99"/>
+      <c r="AR91" s="87"/>
+      <c r="AS91" s="87"/>
+      <c r="AT91" s="87"/>
+      <c r="AU91" s="87"/>
       <c r="AV91" s="63"/>
     </row>
     <row r="92" spans="1:48" x14ac:dyDescent="0.25">
       <c r="L92" s="13"/>
-      <c r="M92" s="91"/>
-      <c r="N92" s="91"/>
-      <c r="T92" s="101"/>
+      <c r="M92" s="88"/>
+      <c r="N92" s="88"/>
+      <c r="T92" s="90"/>
       <c r="Y92" s="64">
         <v>42753</v>
       </c>
@@ -3677,9 +3677,9 @@
     </row>
     <row r="93" spans="1:48" x14ac:dyDescent="0.25">
       <c r="L93" s="13"/>
-      <c r="M93" s="91"/>
-      <c r="N93" s="91"/>
-      <c r="T93" s="101"/>
+      <c r="M93" s="88"/>
+      <c r="N93" s="88"/>
+      <c r="T93" s="90"/>
       <c r="Y93" s="4"/>
       <c r="Z93" s="4"/>
       <c r="AA93" s="4"/>
@@ -3716,9 +3716,9 @@
     </row>
     <row r="94" spans="1:48" x14ac:dyDescent="0.25">
       <c r="L94" s="13"/>
-      <c r="M94" s="91"/>
-      <c r="N94" s="91"/>
-      <c r="T94" s="101"/>
+      <c r="M94" s="88"/>
+      <c r="N94" s="88"/>
+      <c r="T94" s="90"/>
       <c r="Y94" s="4"/>
       <c r="Z94" s="4"/>
       <c r="AA94" s="4"/>
@@ -3755,9 +3755,9 @@
     </row>
     <row r="95" spans="1:48" x14ac:dyDescent="0.25">
       <c r="L95" s="13"/>
-      <c r="M95" s="91"/>
-      <c r="N95" s="91"/>
-      <c r="T95" s="101"/>
+      <c r="M95" s="88"/>
+      <c r="N95" s="88"/>
+      <c r="T95" s="90"/>
       <c r="Y95" s="4"/>
       <c r="Z95" s="4"/>
       <c r="AA95" s="4"/>
@@ -3794,8 +3794,8 @@
     </row>
     <row r="96" spans="1:48" x14ac:dyDescent="0.25">
       <c r="L96" s="13"/>
-      <c r="M96" s="91"/>
-      <c r="N96" s="91"/>
+      <c r="M96" s="88"/>
+      <c r="N96" s="88"/>
       <c r="Y96" s="4"/>
       <c r="Z96" s="4"/>
       <c r="AA96" s="4"/>
@@ -4081,26 +4081,26 @@
     </row>
     <row r="105" spans="8:48" ht="18.75" x14ac:dyDescent="0.25">
       <c r="AO105" s="59"/>
-      <c r="AP105" s="100" t="s">
+      <c r="AP105" s="89" t="s">
         <v>70</v>
       </c>
-      <c r="AQ105" s="100"/>
-      <c r="AR105" s="100"/>
-      <c r="AS105" s="100"/>
-      <c r="AT105" s="100"/>
-      <c r="AU105" s="100"/>
+      <c r="AQ105" s="89"/>
+      <c r="AR105" s="89"/>
+      <c r="AS105" s="89"/>
+      <c r="AT105" s="89"/>
+      <c r="AU105" s="89"/>
       <c r="AV105" s="60"/>
     </row>
     <row r="106" spans="8:48" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AO106" s="61"/>
       <c r="AP106" s="62"/>
-      <c r="AQ106" s="99" t="s">
+      <c r="AQ106" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="AR106" s="99"/>
-      <c r="AS106" s="99"/>
-      <c r="AT106" s="99"/>
-      <c r="AU106" s="99"/>
+      <c r="AR106" s="87"/>
+      <c r="AS106" s="87"/>
+      <c r="AT106" s="87"/>
+      <c r="AU106" s="87"/>
       <c r="AV106" s="63"/>
     </row>
     <row r="107" spans="8:48" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4664,26 +4664,26 @@
         <v>0</v>
       </c>
       <c r="AO120" s="59"/>
-      <c r="AP120" s="100" t="s">
+      <c r="AP120" s="89" t="s">
         <v>70</v>
       </c>
-      <c r="AQ120" s="100"/>
-      <c r="AR120" s="100"/>
-      <c r="AS120" s="100"/>
-      <c r="AT120" s="100"/>
-      <c r="AU120" s="100"/>
+      <c r="AQ120" s="89"/>
+      <c r="AR120" s="89"/>
+      <c r="AS120" s="89"/>
+      <c r="AT120" s="89"/>
+      <c r="AU120" s="89"/>
       <c r="AV120" s="60"/>
     </row>
     <row r="121" spans="8:48" x14ac:dyDescent="0.25">
       <c r="AO121" s="61"/>
       <c r="AP121" s="62"/>
-      <c r="AQ121" s="99" t="s">
+      <c r="AQ121" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="AR121" s="99"/>
-      <c r="AS121" s="99"/>
-      <c r="AT121" s="99"/>
-      <c r="AU121" s="99"/>
+      <c r="AR121" s="87"/>
+      <c r="AS121" s="87"/>
+      <c r="AT121" s="87"/>
+      <c r="AU121" s="87"/>
       <c r="AV121" s="63"/>
     </row>
     <row r="122" spans="8:48" x14ac:dyDescent="0.25">
@@ -5053,14 +5053,14 @@
       <c r="AJ135" s="4"/>
       <c r="AK135" s="4"/>
       <c r="AO135" s="59"/>
-      <c r="AP135" s="100" t="s">
+      <c r="AP135" s="89" t="s">
         <v>70</v>
       </c>
-      <c r="AQ135" s="100"/>
-      <c r="AR135" s="100"/>
-      <c r="AS135" s="100"/>
-      <c r="AT135" s="100"/>
-      <c r="AU135" s="100"/>
+      <c r="AQ135" s="89"/>
+      <c r="AR135" s="89"/>
+      <c r="AS135" s="89"/>
+      <c r="AT135" s="89"/>
+      <c r="AU135" s="89"/>
       <c r="AV135" s="60"/>
     </row>
     <row r="136" spans="25:48" x14ac:dyDescent="0.25">
@@ -5118,13 +5118,13 @@
       </c>
       <c r="AO136" s="61"/>
       <c r="AP136" s="62"/>
-      <c r="AQ136" s="99" t="s">
+      <c r="AQ136" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="AR136" s="99"/>
-      <c r="AS136" s="99"/>
-      <c r="AT136" s="99"/>
-      <c r="AU136" s="99"/>
+      <c r="AR136" s="87"/>
+      <c r="AS136" s="87"/>
+      <c r="AT136" s="87"/>
+      <c r="AU136" s="87"/>
       <c r="AV136" s="63"/>
     </row>
     <row r="137" spans="25:48" x14ac:dyDescent="0.25">
@@ -5180,7 +5180,7 @@
       </c>
       <c r="AQ139" s="70">
         <f>F26</f>
-        <v>900</v>
+        <v>10</v>
       </c>
       <c r="AR139" s="69"/>
       <c r="AS139" s="69"/>
@@ -5281,7 +5281,7 @@
       </c>
       <c r="AQ146" s="75">
         <f>SUM(AQ139:AQ145)</f>
-        <v>2537</v>
+        <v>1647</v>
       </c>
       <c r="AR146" s="75">
         <f t="shared" ref="AR146:AT146" si="10">SUM(AR139:AR145)</f>
@@ -5327,20 +5327,75 @@
     </row>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="AQ136:AU136"/>
-    <mergeCell ref="M96:N96"/>
-    <mergeCell ref="AP105:AU105"/>
-    <mergeCell ref="AQ106:AU106"/>
-    <mergeCell ref="AP120:AU120"/>
-    <mergeCell ref="AQ121:AU121"/>
-    <mergeCell ref="AP135:AU135"/>
-    <mergeCell ref="AP90:AU90"/>
-    <mergeCell ref="AQ91:AU91"/>
-    <mergeCell ref="M92:N92"/>
-    <mergeCell ref="T92:T95"/>
-    <mergeCell ref="M93:N93"/>
-    <mergeCell ref="M94:N94"/>
-    <mergeCell ref="M95:N95"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B34:J34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="C43:C50"/>
+    <mergeCell ref="D43:D50"/>
+    <mergeCell ref="G43:G50"/>
+    <mergeCell ref="H43:H50"/>
+    <mergeCell ref="I43:I50"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="B40:J40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="J43:J50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="C52:C59"/>
+    <mergeCell ref="D52:D59"/>
+    <mergeCell ref="G52:G59"/>
+    <mergeCell ref="H52:H59"/>
+    <mergeCell ref="I52:I59"/>
+    <mergeCell ref="J52:J59"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="J61:J68"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="M70:N70"/>
+    <mergeCell ref="M71:N71"/>
+    <mergeCell ref="B72:J72"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="C61:C68"/>
+    <mergeCell ref="D61:D68"/>
+    <mergeCell ref="G61:G68"/>
+    <mergeCell ref="H61:H68"/>
+    <mergeCell ref="I61:I68"/>
     <mergeCell ref="M77:N77"/>
     <mergeCell ref="B79:E79"/>
     <mergeCell ref="M79:N79"/>
@@ -5359,75 +5414,20 @@
     <mergeCell ref="E73:E74"/>
     <mergeCell ref="F73:F74"/>
     <mergeCell ref="G73:G74"/>
-    <mergeCell ref="J61:J68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="M70:N70"/>
-    <mergeCell ref="M71:N71"/>
-    <mergeCell ref="B72:J72"/>
-    <mergeCell ref="M72:N72"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="C61:C68"/>
-    <mergeCell ref="D61:D68"/>
-    <mergeCell ref="G61:G68"/>
-    <mergeCell ref="H61:H68"/>
-    <mergeCell ref="I61:I68"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="C52:C59"/>
-    <mergeCell ref="D52:D59"/>
-    <mergeCell ref="G52:G59"/>
-    <mergeCell ref="H52:H59"/>
-    <mergeCell ref="I52:I59"/>
-    <mergeCell ref="J52:J59"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="C43:C50"/>
-    <mergeCell ref="D43:D50"/>
-    <mergeCell ref="G43:G50"/>
-    <mergeCell ref="H43:H50"/>
-    <mergeCell ref="I43:I50"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="B40:J40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="J43:J50"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B34:J34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="AQ136:AU136"/>
+    <mergeCell ref="M96:N96"/>
+    <mergeCell ref="AP105:AU105"/>
+    <mergeCell ref="AQ106:AU106"/>
+    <mergeCell ref="AP120:AU120"/>
+    <mergeCell ref="AQ121:AU121"/>
+    <mergeCell ref="AP135:AU135"/>
+    <mergeCell ref="AP90:AU90"/>
+    <mergeCell ref="AQ91:AU91"/>
+    <mergeCell ref="M92:N92"/>
+    <mergeCell ref="T92:T95"/>
+    <mergeCell ref="M93:N93"/>
+    <mergeCell ref="M94:N94"/>
+    <mergeCell ref="M95:N95"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/ProducsBlocked.xlsx
+++ b/ProducsBlocked.xlsx
@@ -1616,7 +1616,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$AO$135:$AV$148" spid="_x0000_s1043"/>
+                  <a14:cameraTool cellRange="$AO$135:$AV$148" spid="_x0000_s1044"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2063,7 +2063,7 @@
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="9">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="11"/>
@@ -2082,7 +2082,7 @@
       <c r="E26" s="96"/>
       <c r="F26" s="15">
         <f>SUM(F25:F25)</f>
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="16" t="s">
@@ -5180,7 +5180,7 @@
       </c>
       <c r="AQ139" s="70">
         <f>F26</f>
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="AR139" s="69"/>
       <c r="AS139" s="69"/>
@@ -5281,7 +5281,7 @@
       </c>
       <c r="AQ146" s="75">
         <f>SUM(AQ139:AQ145)</f>
-        <v>1647</v>
+        <v>1707</v>
       </c>
       <c r="AR146" s="75">
         <f t="shared" ref="AR146:AT146" si="10">SUM(AR139:AR145)</f>
